--- a/projects/va_emerging_tech/analyze_inputs/ATB_data_analysis_2025/2020_ATB_CostProjections.xlsx
+++ b/projects/va_emerging_tech/analyze_inputs/ATB_data_analysis_2025/2020_ATB_CostProjections.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\coopercenter_temoatools\projects\va_emerging_tech\analyze_inputs\ATB_data_analysis _2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\coopercenter_temoatools\projects\va_emerging_tech\analyze_inputs\ATB_data_analysis_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4795FE1F-E78C-4246-AA8E-2AF084B6B09A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FF842F-06C7-44BD-A1B6-CCD7C8D5B947}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="889" xr2:uid="{EBBDE126-F62A-45CA-A9F5-DC77CD44D7C9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Coal_new" sheetId="24" r:id="rId1"/>
-    <sheet name="Coal_CCS_90pct" sheetId="25" r:id="rId2"/>
-    <sheet name="OffshoreWind_Fixed_Class4" sheetId="23" r:id="rId3"/>
-    <sheet name="OffshoreWind_Float_Class12" sheetId="22" r:id="rId4"/>
-    <sheet name="Solar_Utility_PV" sheetId="6" r:id="rId5"/>
-    <sheet name="Solar_PV_Dist_Comm" sheetId="12" r:id="rId6"/>
-    <sheet name="Solar_PV_Dist_Res" sheetId="13" r:id="rId7"/>
-    <sheet name="Natural_Gas_CT" sheetId="17" r:id="rId8"/>
-    <sheet name="Natural_Gas_CC" sheetId="16" r:id="rId9"/>
-    <sheet name="Natural_Gas_CC_CCS" sheetId="18" r:id="rId10"/>
-    <sheet name="Biomass_Dedicated" sheetId="19" r:id="rId11"/>
-    <sheet name="Battery_4hr" sheetId="20" r:id="rId12"/>
-    <sheet name="Battery_2hr" sheetId="21" r:id="rId13"/>
-    <sheet name="Nuclear" sheetId="26" r:id="rId14"/>
-    <sheet name="Hydro_NPD4" sheetId="27" r:id="rId15"/>
+    <sheet name="BECCS" sheetId="28" r:id="rId1"/>
+    <sheet name="Coal_new" sheetId="24" r:id="rId2"/>
+    <sheet name="Coal_CCS_90pct" sheetId="25" r:id="rId3"/>
+    <sheet name="Biomass_Dedicated" sheetId="19" r:id="rId4"/>
+    <sheet name="OffshoreWind_Fixed_Class4" sheetId="23" r:id="rId5"/>
+    <sheet name="OffshoreWind_Float_Class12" sheetId="22" r:id="rId6"/>
+    <sheet name="Solar_Utility_PV" sheetId="6" r:id="rId7"/>
+    <sheet name="Solar_PV_Dist_Comm" sheetId="12" r:id="rId8"/>
+    <sheet name="Solar_PV_Dist_Res" sheetId="13" r:id="rId9"/>
+    <sheet name="Natural_Gas_CT" sheetId="17" r:id="rId10"/>
+    <sheet name="Natural_Gas_CC" sheetId="16" r:id="rId11"/>
+    <sheet name="Natural_Gas_CC_CCS" sheetId="18" r:id="rId12"/>
+    <sheet name="Battery_4hr" sheetId="20" r:id="rId13"/>
+    <sheet name="Battery_2hr" sheetId="21" r:id="rId14"/>
+    <sheet name="Nuclear" sheetId="26" r:id="rId15"/>
+    <sheet name="Hydro_NPD4" sheetId="27" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="10">
   <si>
     <t>Year</t>
   </si>
@@ -75,13 +76,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -643,7 +645,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -759,6 +761,7 @@
     <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="215">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{0562191C-50CB-4344-A0E2-BB8C8F65AE23}"/>
@@ -1314,20 +1317,1100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9F0196-BE41-4D4B-9EE5-8EB0A5AE955D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6178DE37-4008-4846-8CC3-BC3C9831C514}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2027</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2029</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2031</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2033</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2035</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2037</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2039</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2041</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2043</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2045</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2047</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2049</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="113">
+        <f>((Coal_CCS_90pct!B2-Coal_new!B2)/Coal_new!B2+1)*Biomass_Dedicated!B2</f>
+        <v>6874.1464154983159</v>
+      </c>
+      <c r="C2" s="113">
+        <f>((Coal_CCS_90pct!C2-Coal_new!C2)/Coal_new!C2+1)*Biomass_Dedicated!C2</f>
+        <v>6832.7245138999242</v>
+      </c>
+      <c r="D2" s="113">
+        <f>((Coal_CCS_90pct!D2-Coal_new!D2)/Coal_new!D2+1)*Biomass_Dedicated!D2</f>
+        <v>6787.1459783237806</v>
+      </c>
+      <c r="E2" s="113">
+        <f>((Coal_CCS_90pct!E2-Coal_new!E2)/Coal_new!E2+1)*Biomass_Dedicated!E2</f>
+        <v>6744.8746550528622</v>
+      </c>
+      <c r="F2" s="113">
+        <f>((Coal_CCS_90pct!F2-Coal_new!F2)/Coal_new!F2+1)*Biomass_Dedicated!F2</f>
+        <v>6700.8286044795004</v>
+      </c>
+      <c r="G2" s="113">
+        <f>((Coal_CCS_90pct!G2-Coal_new!G2)/Coal_new!G2+1)*Biomass_Dedicated!G2</f>
+        <v>6650.0288967988026</v>
+      </c>
+      <c r="H2" s="113">
+        <f>((Coal_CCS_90pct!H2-Coal_new!H2)/Coal_new!H2+1)*Biomass_Dedicated!H2</f>
+        <v>6601.0194429566973</v>
+      </c>
+      <c r="I2" s="113">
+        <f>((Coal_CCS_90pct!I2-Coal_new!I2)/Coal_new!I2+1)*Biomass_Dedicated!I2</f>
+        <v>6549.8567259680367</v>
+      </c>
+      <c r="J2" s="113">
+        <f>((Coal_CCS_90pct!J2-Coal_new!J2)/Coal_new!J2+1)*Biomass_Dedicated!J2</f>
+        <v>6497.7758557113684</v>
+      </c>
+      <c r="K2" s="113">
+        <f>((Coal_CCS_90pct!K2-Coal_new!K2)/Coal_new!K2+1)*Biomass_Dedicated!K2</f>
+        <v>6452.7475732110515</v>
+      </c>
+      <c r="L2" s="113">
+        <f>((Coal_CCS_90pct!L2-Coal_new!L2)/Coal_new!L2+1)*Biomass_Dedicated!L2</f>
+        <v>6405.8870254389831</v>
+      </c>
+      <c r="M2" s="113">
+        <f>((Coal_CCS_90pct!M2-Coal_new!M2)/Coal_new!M2+1)*Biomass_Dedicated!M2</f>
+        <v>6350.1917751112687</v>
+      </c>
+      <c r="N2" s="113">
+        <f>((Coal_CCS_90pct!N2-Coal_new!N2)/Coal_new!N2+1)*Biomass_Dedicated!N2</f>
+        <v>6303.8503728508922</v>
+      </c>
+      <c r="O2" s="113">
+        <f>((Coal_CCS_90pct!O2-Coal_new!O2)/Coal_new!O2+1)*Biomass_Dedicated!O2</f>
+        <v>6255.1655973556781</v>
+      </c>
+      <c r="P2" s="113">
+        <f>((Coal_CCS_90pct!P2-Coal_new!P2)/Coal_new!P2+1)*Biomass_Dedicated!P2</f>
+        <v>6201.687159724841</v>
+      </c>
+      <c r="Q2" s="113">
+        <f>((Coal_CCS_90pct!Q2-Coal_new!Q2)/Coal_new!Q2+1)*Biomass_Dedicated!Q2</f>
+        <v>6147.1253893419507</v>
+      </c>
+      <c r="R2" s="113">
+        <f>((Coal_CCS_90pct!R2-Coal_new!R2)/Coal_new!R2+1)*Biomass_Dedicated!R2</f>
+        <v>6103.3911430203425</v>
+      </c>
+      <c r="S2" s="113">
+        <f>((Coal_CCS_90pct!S2-Coal_new!S2)/Coal_new!S2+1)*Biomass_Dedicated!S2</f>
+        <v>6051.3115519263401</v>
+      </c>
+      <c r="T2" s="113">
+        <f>((Coal_CCS_90pct!T2-Coal_new!T2)/Coal_new!T2+1)*Biomass_Dedicated!T2</f>
+        <v>6003.466332453645</v>
+      </c>
+      <c r="U2" s="113">
+        <f>((Coal_CCS_90pct!U2-Coal_new!U2)/Coal_new!U2+1)*Biomass_Dedicated!U2</f>
+        <v>5955.3947782645955</v>
+      </c>
+      <c r="V2" s="113">
+        <f>((Coal_CCS_90pct!V2-Coal_new!V2)/Coal_new!V2+1)*Biomass_Dedicated!V2</f>
+        <v>5910.7072031692405</v>
+      </c>
+      <c r="W2" s="113">
+        <f>((Coal_CCS_90pct!W2-Coal_new!W2)/Coal_new!W2+1)*Biomass_Dedicated!W2</f>
+        <v>5855.3200806475033</v>
+      </c>
+      <c r="X2" s="113">
+        <f>((Coal_CCS_90pct!X2-Coal_new!X2)/Coal_new!X2+1)*Biomass_Dedicated!X2</f>
+        <v>5807.7642742114685</v>
+      </c>
+      <c r="Y2" s="113">
+        <f>((Coal_CCS_90pct!Y2-Coal_new!Y2)/Coal_new!Y2+1)*Biomass_Dedicated!Y2</f>
+        <v>5760.0239137914032</v>
+      </c>
+      <c r="Z2" s="113">
+        <f>((Coal_CCS_90pct!Z2-Coal_new!Z2)/Coal_new!Z2+1)*Biomass_Dedicated!Z2</f>
+        <v>5712.2228501126619</v>
+      </c>
+      <c r="AA2" s="113">
+        <f>((Coal_CCS_90pct!AA2-Coal_new!AA2)/Coal_new!AA2+1)*Biomass_Dedicated!AA2</f>
+        <v>5615.5622103508122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="113">
+        <f>((Coal_CCS_90pct!B3-Coal_new!B3)/Coal_new!B3+1)*Biomass_Dedicated!B3</f>
+        <v>6874.1464154983159</v>
+      </c>
+      <c r="C3" s="113">
+        <f>((Coal_CCS_90pct!C3-Coal_new!C3)/Coal_new!C3+1)*Biomass_Dedicated!C3</f>
+        <v>6832.7245138999242</v>
+      </c>
+      <c r="D3" s="113">
+        <f>((Coal_CCS_90pct!D3-Coal_new!D3)/Coal_new!D3+1)*Biomass_Dedicated!D3</f>
+        <v>6787.1459783237806</v>
+      </c>
+      <c r="E3" s="113">
+        <f>((Coal_CCS_90pct!E3-Coal_new!E3)/Coal_new!E3+1)*Biomass_Dedicated!E3</f>
+        <v>6744.8746550528622</v>
+      </c>
+      <c r="F3" s="113">
+        <f>((Coal_CCS_90pct!F3-Coal_new!F3)/Coal_new!F3+1)*Biomass_Dedicated!F3</f>
+        <v>6700.8286044795004</v>
+      </c>
+      <c r="G3" s="113">
+        <f>((Coal_CCS_90pct!G3-Coal_new!G3)/Coal_new!G3+1)*Biomass_Dedicated!G3</f>
+        <v>6650.0288967988026</v>
+      </c>
+      <c r="H3" s="113">
+        <f>((Coal_CCS_90pct!H3-Coal_new!H3)/Coal_new!H3+1)*Biomass_Dedicated!H3</f>
+        <v>6601.0194429566973</v>
+      </c>
+      <c r="I3" s="113">
+        <f>((Coal_CCS_90pct!I3-Coal_new!I3)/Coal_new!I3+1)*Biomass_Dedicated!I3</f>
+        <v>6549.8567259680367</v>
+      </c>
+      <c r="J3" s="113">
+        <f>((Coal_CCS_90pct!J3-Coal_new!J3)/Coal_new!J3+1)*Biomass_Dedicated!J3</f>
+        <v>6497.7758557113684</v>
+      </c>
+      <c r="K3" s="113">
+        <f>((Coal_CCS_90pct!K3-Coal_new!K3)/Coal_new!K3+1)*Biomass_Dedicated!K3</f>
+        <v>6452.7475732110515</v>
+      </c>
+      <c r="L3" s="113">
+        <f>((Coal_CCS_90pct!L3-Coal_new!L3)/Coal_new!L3+1)*Biomass_Dedicated!L3</f>
+        <v>6405.8870254389831</v>
+      </c>
+      <c r="M3" s="113">
+        <f>((Coal_CCS_90pct!M3-Coal_new!M3)/Coal_new!M3+1)*Biomass_Dedicated!M3</f>
+        <v>6350.1917751112687</v>
+      </c>
+      <c r="N3" s="113">
+        <f>((Coal_CCS_90pct!N3-Coal_new!N3)/Coal_new!N3+1)*Biomass_Dedicated!N3</f>
+        <v>6303.8503728508922</v>
+      </c>
+      <c r="O3" s="113">
+        <f>((Coal_CCS_90pct!O3-Coal_new!O3)/Coal_new!O3+1)*Biomass_Dedicated!O3</f>
+        <v>6255.1655973556781</v>
+      </c>
+      <c r="P3" s="113">
+        <f>((Coal_CCS_90pct!P3-Coal_new!P3)/Coal_new!P3+1)*Biomass_Dedicated!P3</f>
+        <v>6201.687159724841</v>
+      </c>
+      <c r="Q3" s="113">
+        <f>((Coal_CCS_90pct!Q3-Coal_new!Q3)/Coal_new!Q3+1)*Biomass_Dedicated!Q3</f>
+        <v>6147.1253893419507</v>
+      </c>
+      <c r="R3" s="113">
+        <f>((Coal_CCS_90pct!R3-Coal_new!R3)/Coal_new!R3+1)*Biomass_Dedicated!R3</f>
+        <v>6103.3911430203425</v>
+      </c>
+      <c r="S3" s="113">
+        <f>((Coal_CCS_90pct!S3-Coal_new!S3)/Coal_new!S3+1)*Biomass_Dedicated!S3</f>
+        <v>6051.3115519263401</v>
+      </c>
+      <c r="T3" s="113">
+        <f>((Coal_CCS_90pct!T3-Coal_new!T3)/Coal_new!T3+1)*Biomass_Dedicated!T3</f>
+        <v>6003.466332453645</v>
+      </c>
+      <c r="U3" s="113">
+        <f>((Coal_CCS_90pct!U3-Coal_new!U3)/Coal_new!U3+1)*Biomass_Dedicated!U3</f>
+        <v>5955.3947782645955</v>
+      </c>
+      <c r="V3" s="113">
+        <f>((Coal_CCS_90pct!V3-Coal_new!V3)/Coal_new!V3+1)*Biomass_Dedicated!V3</f>
+        <v>5910.7072031692405</v>
+      </c>
+      <c r="W3" s="113">
+        <f>((Coal_CCS_90pct!W3-Coal_new!W3)/Coal_new!W3+1)*Biomass_Dedicated!W3</f>
+        <v>5855.3200806475033</v>
+      </c>
+      <c r="X3" s="113">
+        <f>((Coal_CCS_90pct!X3-Coal_new!X3)/Coal_new!X3+1)*Biomass_Dedicated!X3</f>
+        <v>5807.7642742114685</v>
+      </c>
+      <c r="Y3" s="113">
+        <f>((Coal_CCS_90pct!Y3-Coal_new!Y3)/Coal_new!Y3+1)*Biomass_Dedicated!Y3</f>
+        <v>5760.0239137914032</v>
+      </c>
+      <c r="Z3" s="113">
+        <f>((Coal_CCS_90pct!Z3-Coal_new!Z3)/Coal_new!Z3+1)*Biomass_Dedicated!Z3</f>
+        <v>5712.2228501126619</v>
+      </c>
+      <c r="AA3" s="113">
+        <f>((Coal_CCS_90pct!AA3-Coal_new!AA3)/Coal_new!AA3+1)*Biomass_Dedicated!AA3</f>
+        <v>5615.5622103508122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="113">
+        <f>((Coal_CCS_90pct!B4-Coal_new!B4)/Coal_new!B4+1)*Biomass_Dedicated!B4</f>
+        <v>6874.1464154983159</v>
+      </c>
+      <c r="C4" s="113">
+        <f>((Coal_CCS_90pct!C4-Coal_new!C4)/Coal_new!C4+1)*Biomass_Dedicated!C4</f>
+        <v>6832.7245138999242</v>
+      </c>
+      <c r="D4" s="113">
+        <f>((Coal_CCS_90pct!D4-Coal_new!D4)/Coal_new!D4+1)*Biomass_Dedicated!D4</f>
+        <v>6787.1459783237806</v>
+      </c>
+      <c r="E4" s="113">
+        <f>((Coal_CCS_90pct!E4-Coal_new!E4)/Coal_new!E4+1)*Biomass_Dedicated!E4</f>
+        <v>6744.8746550528622</v>
+      </c>
+      <c r="F4" s="113">
+        <f>((Coal_CCS_90pct!F4-Coal_new!F4)/Coal_new!F4+1)*Biomass_Dedicated!F4</f>
+        <v>6700.8286044795004</v>
+      </c>
+      <c r="G4" s="113">
+        <f>((Coal_CCS_90pct!G4-Coal_new!G4)/Coal_new!G4+1)*Biomass_Dedicated!G4</f>
+        <v>6650.0288967988026</v>
+      </c>
+      <c r="H4" s="113">
+        <f>((Coal_CCS_90pct!H4-Coal_new!H4)/Coal_new!H4+1)*Biomass_Dedicated!H4</f>
+        <v>6601.0194429566973</v>
+      </c>
+      <c r="I4" s="113">
+        <f>((Coal_CCS_90pct!I4-Coal_new!I4)/Coal_new!I4+1)*Biomass_Dedicated!I4</f>
+        <v>6549.8567259680367</v>
+      </c>
+      <c r="J4" s="113">
+        <f>((Coal_CCS_90pct!J4-Coal_new!J4)/Coal_new!J4+1)*Biomass_Dedicated!J4</f>
+        <v>6497.7758557113684</v>
+      </c>
+      <c r="K4" s="113">
+        <f>((Coal_CCS_90pct!K4-Coal_new!K4)/Coal_new!K4+1)*Biomass_Dedicated!K4</f>
+        <v>6452.7475732110515</v>
+      </c>
+      <c r="L4" s="113">
+        <f>((Coal_CCS_90pct!L4-Coal_new!L4)/Coal_new!L4+1)*Biomass_Dedicated!L4</f>
+        <v>6405.8870254389831</v>
+      </c>
+      <c r="M4" s="113">
+        <f>((Coal_CCS_90pct!M4-Coal_new!M4)/Coal_new!M4+1)*Biomass_Dedicated!M4</f>
+        <v>6350.1917751112687</v>
+      </c>
+      <c r="N4" s="113">
+        <f>((Coal_CCS_90pct!N4-Coal_new!N4)/Coal_new!N4+1)*Biomass_Dedicated!N4</f>
+        <v>6303.8503728508922</v>
+      </c>
+      <c r="O4" s="113">
+        <f>((Coal_CCS_90pct!O4-Coal_new!O4)/Coal_new!O4+1)*Biomass_Dedicated!O4</f>
+        <v>6255.1655973556781</v>
+      </c>
+      <c r="P4" s="113">
+        <f>((Coal_CCS_90pct!P4-Coal_new!P4)/Coal_new!P4+1)*Biomass_Dedicated!P4</f>
+        <v>6201.687159724841</v>
+      </c>
+      <c r="Q4" s="113">
+        <f>((Coal_CCS_90pct!Q4-Coal_new!Q4)/Coal_new!Q4+1)*Biomass_Dedicated!Q4</f>
+        <v>6147.1253893419507</v>
+      </c>
+      <c r="R4" s="113">
+        <f>((Coal_CCS_90pct!R4-Coal_new!R4)/Coal_new!R4+1)*Biomass_Dedicated!R4</f>
+        <v>6103.3911430203425</v>
+      </c>
+      <c r="S4" s="113">
+        <f>((Coal_CCS_90pct!S4-Coal_new!S4)/Coal_new!S4+1)*Biomass_Dedicated!S4</f>
+        <v>6051.3115519263401</v>
+      </c>
+      <c r="T4" s="113">
+        <f>((Coal_CCS_90pct!T4-Coal_new!T4)/Coal_new!T4+1)*Biomass_Dedicated!T4</f>
+        <v>6003.466332453645</v>
+      </c>
+      <c r="U4" s="113">
+        <f>((Coal_CCS_90pct!U4-Coal_new!U4)/Coal_new!U4+1)*Biomass_Dedicated!U4</f>
+        <v>5955.3947782645955</v>
+      </c>
+      <c r="V4" s="113">
+        <f>((Coal_CCS_90pct!V4-Coal_new!V4)/Coal_new!V4+1)*Biomass_Dedicated!V4</f>
+        <v>5910.7072031692405</v>
+      </c>
+      <c r="W4" s="113">
+        <f>((Coal_CCS_90pct!W4-Coal_new!W4)/Coal_new!W4+1)*Biomass_Dedicated!W4</f>
+        <v>5855.3200806475033</v>
+      </c>
+      <c r="X4" s="113">
+        <f>((Coal_CCS_90pct!X4-Coal_new!X4)/Coal_new!X4+1)*Biomass_Dedicated!X4</f>
+        <v>5807.7642742114685</v>
+      </c>
+      <c r="Y4" s="113">
+        <f>((Coal_CCS_90pct!Y4-Coal_new!Y4)/Coal_new!Y4+1)*Biomass_Dedicated!Y4</f>
+        <v>5760.0239137914032</v>
+      </c>
+      <c r="Z4" s="113">
+        <f>((Coal_CCS_90pct!Z4-Coal_new!Z4)/Coal_new!Z4+1)*Biomass_Dedicated!Z4</f>
+        <v>5712.2228501126619</v>
+      </c>
+      <c r="AA4" s="113">
+        <f>((Coal_CCS_90pct!AA4-Coal_new!AA4)/Coal_new!AA4+1)*Biomass_Dedicated!AA4</f>
+        <v>5615.5622103508122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="113">
+        <f>((Coal_CCS_90pct!B5-Coal_new!B5)/Coal_new!B5+1)*Biomass_Dedicated!B5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="C5" s="113">
+        <f>((Coal_CCS_90pct!C5-Coal_new!C5)/Coal_new!C5+1)*Biomass_Dedicated!C5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="D5" s="113">
+        <f>((Coal_CCS_90pct!D5-Coal_new!D5)/Coal_new!D5+1)*Biomass_Dedicated!D5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="E5" s="113">
+        <f>((Coal_CCS_90pct!E5-Coal_new!E5)/Coal_new!E5+1)*Biomass_Dedicated!E5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="F5" s="113">
+        <f>((Coal_CCS_90pct!F5-Coal_new!F5)/Coal_new!F5+1)*Biomass_Dedicated!F5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="G5" s="113">
+        <f>((Coal_CCS_90pct!G5-Coal_new!G5)/Coal_new!G5+1)*Biomass_Dedicated!G5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="H5" s="113">
+        <f>((Coal_CCS_90pct!H5-Coal_new!H5)/Coal_new!H5+1)*Biomass_Dedicated!H5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="I5" s="113">
+        <f>((Coal_CCS_90pct!I5-Coal_new!I5)/Coal_new!I5+1)*Biomass_Dedicated!I5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="J5" s="113">
+        <f>((Coal_CCS_90pct!J5-Coal_new!J5)/Coal_new!J5+1)*Biomass_Dedicated!J5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="K5" s="113">
+        <f>((Coal_CCS_90pct!K5-Coal_new!K5)/Coal_new!K5+1)*Biomass_Dedicated!K5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="L5" s="113">
+        <f>((Coal_CCS_90pct!L5-Coal_new!L5)/Coal_new!L5+1)*Biomass_Dedicated!L5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="M5" s="113">
+        <f>((Coal_CCS_90pct!M5-Coal_new!M5)/Coal_new!M5+1)*Biomass_Dedicated!M5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="N5" s="113">
+        <f>((Coal_CCS_90pct!N5-Coal_new!N5)/Coal_new!N5+1)*Biomass_Dedicated!N5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="O5" s="113">
+        <f>((Coal_CCS_90pct!O5-Coal_new!O5)/Coal_new!O5+1)*Biomass_Dedicated!O5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="P5" s="113">
+        <f>((Coal_CCS_90pct!P5-Coal_new!P5)/Coal_new!P5+1)*Biomass_Dedicated!P5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Q5" s="113">
+        <f>((Coal_CCS_90pct!Q5-Coal_new!Q5)/Coal_new!Q5+1)*Biomass_Dedicated!Q5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="R5" s="113">
+        <f>((Coal_CCS_90pct!R5-Coal_new!R5)/Coal_new!R5+1)*Biomass_Dedicated!R5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="S5" s="113">
+        <f>((Coal_CCS_90pct!S5-Coal_new!S5)/Coal_new!S5+1)*Biomass_Dedicated!S5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="T5" s="113">
+        <f>((Coal_CCS_90pct!T5-Coal_new!T5)/Coal_new!T5+1)*Biomass_Dedicated!T5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="U5" s="113">
+        <f>((Coal_CCS_90pct!U5-Coal_new!U5)/Coal_new!U5+1)*Biomass_Dedicated!U5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="V5" s="113">
+        <f>((Coal_CCS_90pct!V5-Coal_new!V5)/Coal_new!V5+1)*Biomass_Dedicated!V5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="W5" s="113">
+        <f>((Coal_CCS_90pct!W5-Coal_new!W5)/Coal_new!W5+1)*Biomass_Dedicated!W5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="X5" s="113">
+        <f>((Coal_CCS_90pct!X5-Coal_new!X5)/Coal_new!X5+1)*Biomass_Dedicated!X5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Y5" s="113">
+        <f>((Coal_CCS_90pct!Y5-Coal_new!Y5)/Coal_new!Y5+1)*Biomass_Dedicated!Y5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Z5" s="113">
+        <f>((Coal_CCS_90pct!Z5-Coal_new!Z5)/Coal_new!Z5+1)*Biomass_Dedicated!Z5</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="AA5" s="113">
+        <f>((Coal_CCS_90pct!AA5-Coal_new!AA5)/Coal_new!AA5+1)*Biomass_Dedicated!AA5</f>
+        <v>180.43237318468019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="113">
+        <f>((Coal_CCS_90pct!B6-Coal_new!B6)/Coal_new!B6+1)*Biomass_Dedicated!B6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="C6" s="113">
+        <f>((Coal_CCS_90pct!C6-Coal_new!C6)/Coal_new!C6+1)*Biomass_Dedicated!C6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="D6" s="113">
+        <f>((Coal_CCS_90pct!D6-Coal_new!D6)/Coal_new!D6+1)*Biomass_Dedicated!D6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="E6" s="113">
+        <f>((Coal_CCS_90pct!E6-Coal_new!E6)/Coal_new!E6+1)*Biomass_Dedicated!E6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="F6" s="113">
+        <f>((Coal_CCS_90pct!F6-Coal_new!F6)/Coal_new!F6+1)*Biomass_Dedicated!F6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="G6" s="113">
+        <f>((Coal_CCS_90pct!G6-Coal_new!G6)/Coal_new!G6+1)*Biomass_Dedicated!G6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="H6" s="113">
+        <f>((Coal_CCS_90pct!H6-Coal_new!H6)/Coal_new!H6+1)*Biomass_Dedicated!H6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="I6" s="113">
+        <f>((Coal_CCS_90pct!I6-Coal_new!I6)/Coal_new!I6+1)*Biomass_Dedicated!I6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="J6" s="113">
+        <f>((Coal_CCS_90pct!J6-Coal_new!J6)/Coal_new!J6+1)*Biomass_Dedicated!J6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="K6" s="113">
+        <f>((Coal_CCS_90pct!K6-Coal_new!K6)/Coal_new!K6+1)*Biomass_Dedicated!K6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="L6" s="113">
+        <f>((Coal_CCS_90pct!L6-Coal_new!L6)/Coal_new!L6+1)*Biomass_Dedicated!L6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="M6" s="113">
+        <f>((Coal_CCS_90pct!M6-Coal_new!M6)/Coal_new!M6+1)*Biomass_Dedicated!M6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="N6" s="113">
+        <f>((Coal_CCS_90pct!N6-Coal_new!N6)/Coal_new!N6+1)*Biomass_Dedicated!N6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="O6" s="113">
+        <f>((Coal_CCS_90pct!O6-Coal_new!O6)/Coal_new!O6+1)*Biomass_Dedicated!O6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="P6" s="113">
+        <f>((Coal_CCS_90pct!P6-Coal_new!P6)/Coal_new!P6+1)*Biomass_Dedicated!P6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Q6" s="113">
+        <f>((Coal_CCS_90pct!Q6-Coal_new!Q6)/Coal_new!Q6+1)*Biomass_Dedicated!Q6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="R6" s="113">
+        <f>((Coal_CCS_90pct!R6-Coal_new!R6)/Coal_new!R6+1)*Biomass_Dedicated!R6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="S6" s="113">
+        <f>((Coal_CCS_90pct!S6-Coal_new!S6)/Coal_new!S6+1)*Biomass_Dedicated!S6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="T6" s="113">
+        <f>((Coal_CCS_90pct!T6-Coal_new!T6)/Coal_new!T6+1)*Biomass_Dedicated!T6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="U6" s="113">
+        <f>((Coal_CCS_90pct!U6-Coal_new!U6)/Coal_new!U6+1)*Biomass_Dedicated!U6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="V6" s="113">
+        <f>((Coal_CCS_90pct!V6-Coal_new!V6)/Coal_new!V6+1)*Biomass_Dedicated!V6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="W6" s="113">
+        <f>((Coal_CCS_90pct!W6-Coal_new!W6)/Coal_new!W6+1)*Biomass_Dedicated!W6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="X6" s="113">
+        <f>((Coal_CCS_90pct!X6-Coal_new!X6)/Coal_new!X6+1)*Biomass_Dedicated!X6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Y6" s="113">
+        <f>((Coal_CCS_90pct!Y6-Coal_new!Y6)/Coal_new!Y6+1)*Biomass_Dedicated!Y6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Z6" s="113">
+        <f>((Coal_CCS_90pct!Z6-Coal_new!Z6)/Coal_new!Z6+1)*Biomass_Dedicated!Z6</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="AA6" s="113">
+        <f>((Coal_CCS_90pct!AA6-Coal_new!AA6)/Coal_new!AA6+1)*Biomass_Dedicated!AA6</f>
+        <v>180.43237318468019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="113">
+        <f>((Coal_CCS_90pct!B7-Coal_new!B7)/Coal_new!B7+1)*Biomass_Dedicated!B7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="C7" s="113">
+        <f>((Coal_CCS_90pct!C7-Coal_new!C7)/Coal_new!C7+1)*Biomass_Dedicated!C7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="D7" s="113">
+        <f>((Coal_CCS_90pct!D7-Coal_new!D7)/Coal_new!D7+1)*Biomass_Dedicated!D7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="E7" s="113">
+        <f>((Coal_CCS_90pct!E7-Coal_new!E7)/Coal_new!E7+1)*Biomass_Dedicated!E7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="F7" s="113">
+        <f>((Coal_CCS_90pct!F7-Coal_new!F7)/Coal_new!F7+1)*Biomass_Dedicated!F7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="G7" s="113">
+        <f>((Coal_CCS_90pct!G7-Coal_new!G7)/Coal_new!G7+1)*Biomass_Dedicated!G7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="H7" s="113">
+        <f>((Coal_CCS_90pct!H7-Coal_new!H7)/Coal_new!H7+1)*Biomass_Dedicated!H7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="I7" s="113">
+        <f>((Coal_CCS_90pct!I7-Coal_new!I7)/Coal_new!I7+1)*Biomass_Dedicated!I7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="J7" s="113">
+        <f>((Coal_CCS_90pct!J7-Coal_new!J7)/Coal_new!J7+1)*Biomass_Dedicated!J7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="K7" s="113">
+        <f>((Coal_CCS_90pct!K7-Coal_new!K7)/Coal_new!K7+1)*Biomass_Dedicated!K7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="L7" s="113">
+        <f>((Coal_CCS_90pct!L7-Coal_new!L7)/Coal_new!L7+1)*Biomass_Dedicated!L7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="M7" s="113">
+        <f>((Coal_CCS_90pct!M7-Coal_new!M7)/Coal_new!M7+1)*Biomass_Dedicated!M7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="N7" s="113">
+        <f>((Coal_CCS_90pct!N7-Coal_new!N7)/Coal_new!N7+1)*Biomass_Dedicated!N7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="O7" s="113">
+        <f>((Coal_CCS_90pct!O7-Coal_new!O7)/Coal_new!O7+1)*Biomass_Dedicated!O7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="P7" s="113">
+        <f>((Coal_CCS_90pct!P7-Coal_new!P7)/Coal_new!P7+1)*Biomass_Dedicated!P7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Q7" s="113">
+        <f>((Coal_CCS_90pct!Q7-Coal_new!Q7)/Coal_new!Q7+1)*Biomass_Dedicated!Q7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="R7" s="113">
+        <f>((Coal_CCS_90pct!R7-Coal_new!R7)/Coal_new!R7+1)*Biomass_Dedicated!R7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="S7" s="113">
+        <f>((Coal_CCS_90pct!S7-Coal_new!S7)/Coal_new!S7+1)*Biomass_Dedicated!S7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="T7" s="113">
+        <f>((Coal_CCS_90pct!T7-Coal_new!T7)/Coal_new!T7+1)*Biomass_Dedicated!T7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="U7" s="113">
+        <f>((Coal_CCS_90pct!U7-Coal_new!U7)/Coal_new!U7+1)*Biomass_Dedicated!U7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="V7" s="113">
+        <f>((Coal_CCS_90pct!V7-Coal_new!V7)/Coal_new!V7+1)*Biomass_Dedicated!V7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="W7" s="113">
+        <f>((Coal_CCS_90pct!W7-Coal_new!W7)/Coal_new!W7+1)*Biomass_Dedicated!W7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="X7" s="113">
+        <f>((Coal_CCS_90pct!X7-Coal_new!X7)/Coal_new!X7+1)*Biomass_Dedicated!X7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Y7" s="113">
+        <f>((Coal_CCS_90pct!Y7-Coal_new!Y7)/Coal_new!Y7+1)*Biomass_Dedicated!Y7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="Z7" s="113">
+        <f>((Coal_CCS_90pct!Z7-Coal_new!Z7)/Coal_new!Z7+1)*Biomass_Dedicated!Z7</f>
+        <v>180.43237318468019</v>
+      </c>
+      <c r="AA7" s="113">
+        <f>((Coal_CCS_90pct!AA7-Coal_new!AA7)/Coal_new!AA7+1)*Biomass_Dedicated!AA7</f>
+        <v>180.43237318468019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="113">
+        <f>((Coal_CCS_90pct!B8-Coal_new!B8)/Coal_new!B8+1)*Biomass_Dedicated!B8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="C8" s="113">
+        <f>((Coal_CCS_90pct!C8-Coal_new!C8)/Coal_new!C8+1)*Biomass_Dedicated!C8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="D8" s="113">
+        <f>((Coal_CCS_90pct!D8-Coal_new!D8)/Coal_new!D8+1)*Biomass_Dedicated!D8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="E8" s="113">
+        <f>((Coal_CCS_90pct!E8-Coal_new!E8)/Coal_new!E8+1)*Biomass_Dedicated!E8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="F8" s="113">
+        <f>((Coal_CCS_90pct!F8-Coal_new!F8)/Coal_new!F8+1)*Biomass_Dedicated!F8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="G8" s="113">
+        <f>((Coal_CCS_90pct!G8-Coal_new!G8)/Coal_new!G8+1)*Biomass_Dedicated!G8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="H8" s="113">
+        <f>((Coal_CCS_90pct!H8-Coal_new!H8)/Coal_new!H8+1)*Biomass_Dedicated!H8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="I8" s="113">
+        <f>((Coal_CCS_90pct!I8-Coal_new!I8)/Coal_new!I8+1)*Biomass_Dedicated!I8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="J8" s="113">
+        <f>((Coal_CCS_90pct!J8-Coal_new!J8)/Coal_new!J8+1)*Biomass_Dedicated!J8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="K8" s="113">
+        <f>((Coal_CCS_90pct!K8-Coal_new!K8)/Coal_new!K8+1)*Biomass_Dedicated!K8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="L8" s="113">
+        <f>((Coal_CCS_90pct!L8-Coal_new!L8)/Coal_new!L8+1)*Biomass_Dedicated!L8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="M8" s="113">
+        <f>((Coal_CCS_90pct!M8-Coal_new!M8)/Coal_new!M8+1)*Biomass_Dedicated!M8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="N8" s="113">
+        <f>((Coal_CCS_90pct!N8-Coal_new!N8)/Coal_new!N8+1)*Biomass_Dedicated!N8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="O8" s="113">
+        <f>((Coal_CCS_90pct!O8-Coal_new!O8)/Coal_new!O8+1)*Biomass_Dedicated!O8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="P8" s="113">
+        <f>((Coal_CCS_90pct!P8-Coal_new!P8)/Coal_new!P8+1)*Biomass_Dedicated!P8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Q8" s="113">
+        <f>((Coal_CCS_90pct!Q8-Coal_new!Q8)/Coal_new!Q8+1)*Biomass_Dedicated!Q8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="R8" s="113">
+        <f>((Coal_CCS_90pct!R8-Coal_new!R8)/Coal_new!R8+1)*Biomass_Dedicated!R8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="S8" s="113">
+        <f>((Coal_CCS_90pct!S8-Coal_new!S8)/Coal_new!S8+1)*Biomass_Dedicated!S8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="T8" s="113">
+        <f>((Coal_CCS_90pct!T8-Coal_new!T8)/Coal_new!T8+1)*Biomass_Dedicated!T8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="U8" s="113">
+        <f>((Coal_CCS_90pct!U8-Coal_new!U8)/Coal_new!U8+1)*Biomass_Dedicated!U8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="V8" s="113">
+        <f>((Coal_CCS_90pct!V8-Coal_new!V8)/Coal_new!V8+1)*Biomass_Dedicated!V8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="W8" s="113">
+        <f>((Coal_CCS_90pct!W8-Coal_new!W8)/Coal_new!W8+1)*Biomass_Dedicated!W8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="X8" s="113">
+        <f>((Coal_CCS_90pct!X8-Coal_new!X8)/Coal_new!X8+1)*Biomass_Dedicated!X8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Y8" s="113">
+        <f>((Coal_CCS_90pct!Y8-Coal_new!Y8)/Coal_new!Y8+1)*Biomass_Dedicated!Y8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Z8" s="113">
+        <f>((Coal_CCS_90pct!Z8-Coal_new!Z8)/Coal_new!Z8+1)*Biomass_Dedicated!Z8</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="AA8" s="113">
+        <f>((Coal_CCS_90pct!AA8-Coal_new!AA8)/Coal_new!AA8+1)*Biomass_Dedicated!AA8</f>
+        <v>11.527614545326969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="113">
+        <f>((Coal_CCS_90pct!B9-Coal_new!B9)/Coal_new!B9+1)*Biomass_Dedicated!B9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="C9" s="113">
+        <f>((Coal_CCS_90pct!C9-Coal_new!C9)/Coal_new!C9+1)*Biomass_Dedicated!C9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="D9" s="113">
+        <f>((Coal_CCS_90pct!D9-Coal_new!D9)/Coal_new!D9+1)*Biomass_Dedicated!D9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="E9" s="113">
+        <f>((Coal_CCS_90pct!E9-Coal_new!E9)/Coal_new!E9+1)*Biomass_Dedicated!E9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="F9" s="113">
+        <f>((Coal_CCS_90pct!F9-Coal_new!F9)/Coal_new!F9+1)*Biomass_Dedicated!F9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="G9" s="113">
+        <f>((Coal_CCS_90pct!G9-Coal_new!G9)/Coal_new!G9+1)*Biomass_Dedicated!G9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="H9" s="113">
+        <f>((Coal_CCS_90pct!H9-Coal_new!H9)/Coal_new!H9+1)*Biomass_Dedicated!H9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="I9" s="113">
+        <f>((Coal_CCS_90pct!I9-Coal_new!I9)/Coal_new!I9+1)*Biomass_Dedicated!I9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="J9" s="113">
+        <f>((Coal_CCS_90pct!J9-Coal_new!J9)/Coal_new!J9+1)*Biomass_Dedicated!J9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="K9" s="113">
+        <f>((Coal_CCS_90pct!K9-Coal_new!K9)/Coal_new!K9+1)*Biomass_Dedicated!K9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="L9" s="113">
+        <f>((Coal_CCS_90pct!L9-Coal_new!L9)/Coal_new!L9+1)*Biomass_Dedicated!L9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="M9" s="113">
+        <f>((Coal_CCS_90pct!M9-Coal_new!M9)/Coal_new!M9+1)*Biomass_Dedicated!M9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="N9" s="113">
+        <f>((Coal_CCS_90pct!N9-Coal_new!N9)/Coal_new!N9+1)*Biomass_Dedicated!N9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="O9" s="113">
+        <f>((Coal_CCS_90pct!O9-Coal_new!O9)/Coal_new!O9+1)*Biomass_Dedicated!O9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="P9" s="113">
+        <f>((Coal_CCS_90pct!P9-Coal_new!P9)/Coal_new!P9+1)*Biomass_Dedicated!P9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Q9" s="113">
+        <f>((Coal_CCS_90pct!Q9-Coal_new!Q9)/Coal_new!Q9+1)*Biomass_Dedicated!Q9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="R9" s="113">
+        <f>((Coal_CCS_90pct!R9-Coal_new!R9)/Coal_new!R9+1)*Biomass_Dedicated!R9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="S9" s="113">
+        <f>((Coal_CCS_90pct!S9-Coal_new!S9)/Coal_new!S9+1)*Biomass_Dedicated!S9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="T9" s="113">
+        <f>((Coal_CCS_90pct!T9-Coal_new!T9)/Coal_new!T9+1)*Biomass_Dedicated!T9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="U9" s="113">
+        <f>((Coal_CCS_90pct!U9-Coal_new!U9)/Coal_new!U9+1)*Biomass_Dedicated!U9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="V9" s="113">
+        <f>((Coal_CCS_90pct!V9-Coal_new!V9)/Coal_new!V9+1)*Biomass_Dedicated!V9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="W9" s="113">
+        <f>((Coal_CCS_90pct!W9-Coal_new!W9)/Coal_new!W9+1)*Biomass_Dedicated!W9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="X9" s="113">
+        <f>((Coal_CCS_90pct!X9-Coal_new!X9)/Coal_new!X9+1)*Biomass_Dedicated!X9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Y9" s="113">
+        <f>((Coal_CCS_90pct!Y9-Coal_new!Y9)/Coal_new!Y9+1)*Biomass_Dedicated!Y9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Z9" s="113">
+        <f>((Coal_CCS_90pct!Z9-Coal_new!Z9)/Coal_new!Z9+1)*Biomass_Dedicated!Z9</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="AA9" s="113">
+        <f>((Coal_CCS_90pct!AA9-Coal_new!AA9)/Coal_new!AA9+1)*Biomass_Dedicated!AA9</f>
+        <v>11.527614545326969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="113">
+        <f>((Coal_CCS_90pct!B10-Coal_new!B10)/Coal_new!B10+1)*Biomass_Dedicated!B10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="C10" s="113">
+        <f>((Coal_CCS_90pct!C10-Coal_new!C10)/Coal_new!C10+1)*Biomass_Dedicated!C10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="D10" s="113">
+        <f>((Coal_CCS_90pct!D10-Coal_new!D10)/Coal_new!D10+1)*Biomass_Dedicated!D10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="E10" s="113">
+        <f>((Coal_CCS_90pct!E10-Coal_new!E10)/Coal_new!E10+1)*Biomass_Dedicated!E10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="F10" s="113">
+        <f>((Coal_CCS_90pct!F10-Coal_new!F10)/Coal_new!F10+1)*Biomass_Dedicated!F10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="G10" s="113">
+        <f>((Coal_CCS_90pct!G10-Coal_new!G10)/Coal_new!G10+1)*Biomass_Dedicated!G10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="H10" s="113">
+        <f>((Coal_CCS_90pct!H10-Coal_new!H10)/Coal_new!H10+1)*Biomass_Dedicated!H10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="I10" s="113">
+        <f>((Coal_CCS_90pct!I10-Coal_new!I10)/Coal_new!I10+1)*Biomass_Dedicated!I10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="J10" s="113">
+        <f>((Coal_CCS_90pct!J10-Coal_new!J10)/Coal_new!J10+1)*Biomass_Dedicated!J10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="K10" s="113">
+        <f>((Coal_CCS_90pct!K10-Coal_new!K10)/Coal_new!K10+1)*Biomass_Dedicated!K10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="L10" s="113">
+        <f>((Coal_CCS_90pct!L10-Coal_new!L10)/Coal_new!L10+1)*Biomass_Dedicated!L10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="M10" s="113">
+        <f>((Coal_CCS_90pct!M10-Coal_new!M10)/Coal_new!M10+1)*Biomass_Dedicated!M10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="N10" s="113">
+        <f>((Coal_CCS_90pct!N10-Coal_new!N10)/Coal_new!N10+1)*Biomass_Dedicated!N10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="O10" s="113">
+        <f>((Coal_CCS_90pct!O10-Coal_new!O10)/Coal_new!O10+1)*Biomass_Dedicated!O10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="P10" s="113">
+        <f>((Coal_CCS_90pct!P10-Coal_new!P10)/Coal_new!P10+1)*Biomass_Dedicated!P10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Q10" s="113">
+        <f>((Coal_CCS_90pct!Q10-Coal_new!Q10)/Coal_new!Q10+1)*Biomass_Dedicated!Q10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="R10" s="113">
+        <f>((Coal_CCS_90pct!R10-Coal_new!R10)/Coal_new!R10+1)*Biomass_Dedicated!R10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="S10" s="113">
+        <f>((Coal_CCS_90pct!S10-Coal_new!S10)/Coal_new!S10+1)*Biomass_Dedicated!S10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="T10" s="113">
+        <f>((Coal_CCS_90pct!T10-Coal_new!T10)/Coal_new!T10+1)*Biomass_Dedicated!T10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="U10" s="113">
+        <f>((Coal_CCS_90pct!U10-Coal_new!U10)/Coal_new!U10+1)*Biomass_Dedicated!U10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="V10" s="113">
+        <f>((Coal_CCS_90pct!V10-Coal_new!V10)/Coal_new!V10+1)*Biomass_Dedicated!V10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="W10" s="113">
+        <f>((Coal_CCS_90pct!W10-Coal_new!W10)/Coal_new!W10+1)*Biomass_Dedicated!W10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="X10" s="113">
+        <f>((Coal_CCS_90pct!X10-Coal_new!X10)/Coal_new!X10+1)*Biomass_Dedicated!X10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Y10" s="113">
+        <f>((Coal_CCS_90pct!Y10-Coal_new!Y10)/Coal_new!Y10+1)*Biomass_Dedicated!Y10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="Z10" s="113">
+        <f>((Coal_CCS_90pct!Z10-Coal_new!Z10)/Coal_new!Z10+1)*Biomass_Dedicated!Z10</f>
+        <v>11.527614545326969</v>
+      </c>
+      <c r="AA10" s="113">
+        <f>((Coal_CCS_90pct!AA10-Coal_new!AA10)/Coal_new!AA10+1)*Biomass_Dedicated!AA10</f>
+        <v>11.527614545326969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA80092E-8763-4734-8D04-462D0614B46E}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="78" customFormat="1">
+    <row r="1" spans="1:27" s="32" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1410,760 +2493,1608 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="78" customFormat="1">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:27" s="32" customFormat="1">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="83">
-        <v>4099.1158508425824</v>
-      </c>
-      <c r="C2" s="83">
-        <v>4091.1558428959215</v>
-      </c>
-      <c r="D2" s="83">
-        <v>4080.7055357963304</v>
-      </c>
-      <c r="E2" s="83">
-        <v>4072.2400919656875</v>
-      </c>
-      <c r="F2" s="83">
-        <v>4062.701678683447</v>
-      </c>
-      <c r="G2" s="83">
-        <v>4049.0474027155306</v>
-      </c>
-      <c r="H2" s="83">
-        <v>4036.4457845290613</v>
-      </c>
-      <c r="I2" s="83">
-        <v>4022.4908203418204</v>
-      </c>
-      <c r="J2" s="83">
-        <v>4007.9244369461508</v>
-      </c>
-      <c r="K2" s="83">
-        <v>3997.6776351353105</v>
-      </c>
-      <c r="L2" s="83">
-        <v>3986.2788080643622</v>
-      </c>
-      <c r="M2" s="83">
-        <v>3969.3340763718875</v>
-      </c>
-      <c r="N2" s="83">
-        <v>3958.1880095418119</v>
-      </c>
-      <c r="O2" s="83">
-        <v>3945.5428290439436</v>
-      </c>
-      <c r="P2" s="83">
-        <v>3929.8245476510956</v>
-      </c>
-      <c r="Q2" s="83">
-        <v>3913.3514861714762</v>
-      </c>
-      <c r="R2" s="83">
-        <v>3903.7302757735752</v>
-      </c>
-      <c r="S2" s="83">
-        <v>3888.7384259906003</v>
-      </c>
-      <c r="T2" s="83">
-        <v>3876.4193402143574</v>
-      </c>
-      <c r="U2" s="83">
-        <v>3863.9170049352815</v>
-      </c>
-      <c r="V2" s="83">
-        <v>3853.5836394497987</v>
-      </c>
-      <c r="W2" s="83">
-        <v>3836.2231338199613</v>
-      </c>
-      <c r="X2" s="83">
-        <v>3823.9300313765698</v>
-      </c>
-      <c r="Y2" s="83">
-        <v>3811.47810449094</v>
-      </c>
-      <c r="Z2" s="83">
-        <v>3798.9466485737348</v>
-      </c>
-      <c r="AA2" s="83">
-        <v>3753.7118898041126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="78" customFormat="1">
-      <c r="A3" s="80" t="s">
+      <c r="B2" s="39">
+        <v>924.7229308080681</v>
+      </c>
+      <c r="C2" s="39">
+        <v>917.89861802124256</v>
+      </c>
+      <c r="D2" s="39">
+        <v>910.53274808400624</v>
+      </c>
+      <c r="E2" s="39">
+        <v>905.72575709406624</v>
+      </c>
+      <c r="F2" s="39">
+        <v>902.48928526207146</v>
+      </c>
+      <c r="G2" s="39">
+        <v>897.99041033365052</v>
+      </c>
+      <c r="H2" s="39">
+        <v>894.13511367335582</v>
+      </c>
+      <c r="I2" s="39">
+        <v>890.01088794751308</v>
+      </c>
+      <c r="J2" s="39">
+        <v>885.30372378089135</v>
+      </c>
+      <c r="K2" s="39">
+        <v>881.90121962169826</v>
+      </c>
+      <c r="L2" s="39">
+        <v>879.4478402080905</v>
+      </c>
+      <c r="M2" s="39">
+        <v>876.12999615251374</v>
+      </c>
+      <c r="N2" s="39">
+        <v>874.0919438779207</v>
+      </c>
+      <c r="O2" s="39">
+        <v>871.72308583678955</v>
+      </c>
+      <c r="P2" s="39">
+        <v>868.67498800661099</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>865.45942525090788</v>
+      </c>
+      <c r="R2" s="39">
+        <v>863.75910859085036</v>
+      </c>
+      <c r="S2" s="39">
+        <v>860.87054510230814</v>
+      </c>
+      <c r="T2" s="39">
+        <v>858.57369874982021</v>
+      </c>
+      <c r="U2" s="39">
+        <v>856.23634902929416</v>
+      </c>
+      <c r="V2" s="39">
+        <v>854.38008117045501</v>
+      </c>
+      <c r="W2" s="39">
+        <v>850.96552111645678</v>
+      </c>
+      <c r="X2" s="39">
+        <v>848.67471055298427</v>
+      </c>
+      <c r="Y2" s="39">
+        <v>846.34886421467922</v>
+      </c>
+      <c r="Z2" s="39">
+        <v>844.0052967135415</v>
+      </c>
+      <c r="AA2" s="39">
+        <v>834.39253482591789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="32" customFormat="1">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81">
-        <v>4099.1158508425824</v>
-      </c>
-      <c r="C3" s="81">
-        <v>4091.1558428959215</v>
-      </c>
-      <c r="D3" s="81">
-        <v>4080.7055357963304</v>
-      </c>
-      <c r="E3" s="81">
-        <v>4072.2400919656875</v>
-      </c>
-      <c r="F3" s="81">
-        <v>4062.701678683447</v>
-      </c>
-      <c r="G3" s="81">
-        <v>4049.0474027155306</v>
-      </c>
-      <c r="H3" s="81">
-        <v>4036.4457845290613</v>
-      </c>
-      <c r="I3" s="81">
-        <v>4022.4908203418204</v>
-      </c>
-      <c r="J3" s="81">
-        <v>4007.9244369461508</v>
-      </c>
-      <c r="K3" s="81">
-        <v>3997.6776351353105</v>
-      </c>
-      <c r="L3" s="81">
-        <v>3986.2788080643622</v>
-      </c>
-      <c r="M3" s="81">
-        <v>3969.3340763718875</v>
-      </c>
-      <c r="N3" s="81">
-        <v>3958.1880095418119</v>
-      </c>
-      <c r="O3" s="81">
-        <v>3945.5428290439436</v>
-      </c>
-      <c r="P3" s="81">
-        <v>3929.8245476510956</v>
-      </c>
-      <c r="Q3" s="81">
-        <v>3913.3514861714762</v>
-      </c>
-      <c r="R3" s="81">
-        <v>3903.7302757735752</v>
-      </c>
-      <c r="S3" s="81">
-        <v>3888.7384259906003</v>
-      </c>
-      <c r="T3" s="81">
-        <v>3876.4193402143574</v>
-      </c>
-      <c r="U3" s="81">
-        <v>3863.9170049352815</v>
-      </c>
-      <c r="V3" s="81">
-        <v>3853.5836394497987</v>
-      </c>
-      <c r="W3" s="81">
-        <v>3836.2231338199613</v>
-      </c>
-      <c r="X3" s="81">
-        <v>3823.9300313765698</v>
-      </c>
-      <c r="Y3" s="81">
-        <v>3811.47810449094</v>
-      </c>
-      <c r="Z3" s="81">
-        <v>3798.9466485737348</v>
-      </c>
-      <c r="AA3" s="81">
-        <v>3753.7118898041126</v>
+      <c r="B3" s="37">
+        <v>924.7229308080681</v>
+      </c>
+      <c r="C3" s="37">
+        <v>917.89861802124256</v>
+      </c>
+      <c r="D3" s="37">
+        <v>910.53274808400624</v>
+      </c>
+      <c r="E3" s="37">
+        <v>905.72575709406624</v>
+      </c>
+      <c r="F3" s="37">
+        <v>902.48928526207146</v>
+      </c>
+      <c r="G3" s="37">
+        <v>897.99041033365052</v>
+      </c>
+      <c r="H3" s="37">
+        <v>894.13511367335582</v>
+      </c>
+      <c r="I3" s="37">
+        <v>890.01088794751308</v>
+      </c>
+      <c r="J3" s="37">
+        <v>885.30372378089135</v>
+      </c>
+      <c r="K3" s="37">
+        <v>881.90121962169826</v>
+      </c>
+      <c r="L3" s="37">
+        <v>879.4478402080905</v>
+      </c>
+      <c r="M3" s="37">
+        <v>876.12999615251374</v>
+      </c>
+      <c r="N3" s="37">
+        <v>874.0919438779207</v>
+      </c>
+      <c r="O3" s="37">
+        <v>871.72308583678955</v>
+      </c>
+      <c r="P3" s="37">
+        <v>868.67498800661099</v>
+      </c>
+      <c r="Q3" s="37">
+        <v>865.45942525090788</v>
+      </c>
+      <c r="R3" s="37">
+        <v>863.75910859085036</v>
+      </c>
+      <c r="S3" s="37">
+        <v>860.87054510230814</v>
+      </c>
+      <c r="T3" s="37">
+        <v>858.57369874982021</v>
+      </c>
+      <c r="U3" s="37">
+        <v>856.23634902929416</v>
+      </c>
+      <c r="V3" s="37">
+        <v>854.38008117045501</v>
+      </c>
+      <c r="W3" s="37">
+        <v>850.96552111645678</v>
+      </c>
+      <c r="X3" s="37">
+        <v>848.67471055298427</v>
+      </c>
+      <c r="Y3" s="37">
+        <v>846.34886421467922</v>
+      </c>
+      <c r="Z3" s="37">
+        <v>844.0052967135415</v>
+      </c>
+      <c r="AA3" s="37">
+        <v>834.39253482591789</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="82">
-        <v>4099.1158508425824</v>
-      </c>
-      <c r="C4" s="82">
-        <v>4091.1558428959215</v>
-      </c>
-      <c r="D4" s="82">
-        <v>4080.7055357963304</v>
-      </c>
-      <c r="E4" s="82">
-        <v>4072.2400919656875</v>
-      </c>
-      <c r="F4" s="82">
-        <v>4062.701678683447</v>
-      </c>
-      <c r="G4" s="82">
-        <v>4049.0474027155306</v>
-      </c>
-      <c r="H4" s="82">
-        <v>4036.4457845290613</v>
-      </c>
-      <c r="I4" s="82">
-        <v>4022.4908203418204</v>
-      </c>
-      <c r="J4" s="82">
-        <v>4007.9244369461508</v>
-      </c>
-      <c r="K4" s="82">
-        <v>3997.6776351353105</v>
-      </c>
-      <c r="L4" s="82">
-        <v>3986.2788080643622</v>
-      </c>
-      <c r="M4" s="82">
-        <v>3969.3340763718875</v>
-      </c>
-      <c r="N4" s="82">
-        <v>3958.1880095418119</v>
-      </c>
-      <c r="O4" s="82">
-        <v>3945.5428290439436</v>
-      </c>
-      <c r="P4" s="82">
-        <v>3929.8245476510956</v>
-      </c>
-      <c r="Q4" s="82">
-        <v>3913.3514861714762</v>
-      </c>
-      <c r="R4" s="82">
-        <v>3903.7302757735752</v>
-      </c>
-      <c r="S4" s="82">
-        <v>3888.7384259906003</v>
-      </c>
-      <c r="T4" s="82">
-        <v>3876.4193402143574</v>
-      </c>
-      <c r="U4" s="82">
-        <v>3863.9170049352815</v>
-      </c>
-      <c r="V4" s="82">
-        <v>3853.5836394497987</v>
-      </c>
-      <c r="W4" s="82">
-        <v>3836.2231338199613</v>
-      </c>
-      <c r="X4" s="82">
-        <v>3823.9300313765698</v>
-      </c>
-      <c r="Y4" s="82">
-        <v>3811.47810449094</v>
-      </c>
-      <c r="Z4" s="82">
-        <v>3798.9466485737348</v>
-      </c>
-      <c r="AA4" s="82">
-        <v>3753.7118898041126</v>
+      <c r="B4" s="38">
+        <v>924.7229308080681</v>
+      </c>
+      <c r="C4" s="38">
+        <v>917.89861802124256</v>
+      </c>
+      <c r="D4" s="38">
+        <v>910.53274808400624</v>
+      </c>
+      <c r="E4" s="38">
+        <v>905.72575709406624</v>
+      </c>
+      <c r="F4" s="38">
+        <v>902.48928526207146</v>
+      </c>
+      <c r="G4" s="38">
+        <v>897.99041033365052</v>
+      </c>
+      <c r="H4" s="38">
+        <v>894.13511367335582</v>
+      </c>
+      <c r="I4" s="38">
+        <v>890.01088794751308</v>
+      </c>
+      <c r="J4" s="38">
+        <v>885.30372378089135</v>
+      </c>
+      <c r="K4" s="38">
+        <v>881.90121962169826</v>
+      </c>
+      <c r="L4" s="38">
+        <v>879.4478402080905</v>
+      </c>
+      <c r="M4" s="38">
+        <v>876.12999615251374</v>
+      </c>
+      <c r="N4" s="38">
+        <v>874.0919438779207</v>
+      </c>
+      <c r="O4" s="38">
+        <v>871.72308583678955</v>
+      </c>
+      <c r="P4" s="38">
+        <v>868.67498800661099</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>865.45942525090788</v>
+      </c>
+      <c r="R4" s="38">
+        <v>863.75910859085036</v>
+      </c>
+      <c r="S4" s="38">
+        <v>860.87054510230814</v>
+      </c>
+      <c r="T4" s="38">
+        <v>858.57369874982021</v>
+      </c>
+      <c r="U4" s="38">
+        <v>856.23634902929416</v>
+      </c>
+      <c r="V4" s="38">
+        <v>854.38008117045501</v>
+      </c>
+      <c r="W4" s="38">
+        <v>850.96552111645678</v>
+      </c>
+      <c r="X4" s="38">
+        <v>848.67471055298427</v>
+      </c>
+      <c r="Y4" s="38">
+        <v>846.34886421467922</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>844.0052967135415</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>834.39253482591789</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" thickTop="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="C5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="D5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="E5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="F5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="G5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="H5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="I5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="J5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="K5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="L5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="M5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="N5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="O5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="P5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Q5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="R5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="S5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="T5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="U5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="V5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="W5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="X5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Y5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Z5" s="88">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="AA5" s="88">
-        <v>39.695481335952849</v>
+      <c r="B5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="C5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="D5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="E5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="F5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="G5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="H5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="I5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="J5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="K5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="L5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="M5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="N5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="O5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="P5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="R5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="S5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="T5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="U5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="V5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="W5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="X5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Y5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Z5" s="46">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="AA5" s="46">
+        <v>11.394891944990176</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="C6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="D6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="E6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="F6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="G6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="H6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="I6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="J6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="K6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="L6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="M6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="N6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="O6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="P6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Q6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="R6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="S6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="T6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="U6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="V6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="W6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="X6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Y6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Z6" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="AA6" s="87">
-        <v>39.695481335952849</v>
+      <c r="B6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="C6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="D6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="E6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="F6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="G6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="H6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="I6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="J6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="K6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="L6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="M6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="N6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="O6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="P6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="R6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="S6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="T6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="U6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="V6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="W6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="X6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Y6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Z6" s="47">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="AA6" s="47">
+        <v>11.394891944990176</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="C7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="D7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="E7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="F7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="G7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="H7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="I7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="J7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="K7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="L7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="M7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="N7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="O7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="P7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Q7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="R7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="S7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="T7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="U7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="V7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="W7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="X7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Y7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="Z7" s="87">
-        <v>39.695481335952849</v>
-      </c>
-      <c r="AA7" s="87">
-        <v>39.695481335952849</v>
+      <c r="B7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="C7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="D7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="E7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="F7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="G7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="H7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="I7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="J7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="K7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="L7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="M7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="N7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="O7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="P7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Q7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="R7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="S7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="T7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="U7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="V7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="W7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="X7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Y7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="Z7" s="48">
+        <v>11.394891944990176</v>
+      </c>
+      <c r="AA7" s="48">
+        <v>11.394891944990176</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" thickTop="1">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="C8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="D8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="E8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="F8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="G8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="H8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="I8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="J8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="K8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="L8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="M8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="N8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="O8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="P8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Q8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="R8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="S8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="T8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="U8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="V8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="W8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="X8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Y8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Z8" s="92">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="AA8" s="92">
-        <v>4.4007858546168963</v>
+      <c r="B8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="C8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="D8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="E8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="F8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="G8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="H8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="I8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="J8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="K8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="L8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="M8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="N8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="O8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="P8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="R8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="S8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="T8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="U8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="V8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="W8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="X8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Y8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Z8" s="55">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="AA8" s="55">
+        <v>4.4990176817288798</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="C9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="D9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="E9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="F9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="G9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="H9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="I9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="J9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="K9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="L9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="M9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="N9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="O9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="P9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Q9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="R9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="S9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="T9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="U9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="V9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="W9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="X9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Y9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Z9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="AA9" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="80" t="s">
+      <c r="B9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="C9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="D9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="E9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="F9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="G9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="H9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="I9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="J9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="K9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="L9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="M9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="N9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="O9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="P9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="R9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="S9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="T9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="U9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="V9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="W9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="X9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Y9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Z9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="AA9" s="56">
+        <v>4.4990176817288798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15" thickBot="1">
+      <c r="A10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="C10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="D10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="E10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="F10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="G10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="H10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="I10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="J10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="K10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="L10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="M10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="N10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="O10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="P10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Q10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="R10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="S10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="T10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="U10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="V10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="W10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="X10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Y10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="Z10" s="91">
-        <v>4.4007858546168963</v>
-      </c>
-      <c r="AA10" s="91">
-        <v>4.4007858546168963</v>
+      <c r="B10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="C10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="D10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="E10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="F10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="G10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="H10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="I10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="J10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="K10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="L10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="M10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="N10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="O10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="P10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="R10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="S10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="T10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="U10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="V10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="W10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="X10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>4.4990176817288798</v>
+      </c>
+      <c r="AA10" s="57">
+        <v>4.4990176817288798</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548C24F3-5A5A-43E1-B63C-A455F8B90577}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="B1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="32" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2027</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2029</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2031</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2033</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2035</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2037</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2039</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2041</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2043</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2045</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2047</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2049</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="32" customFormat="1" ht="15" thickTop="1">
+      <c r="A2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="42">
+        <v>1008.0019363728217</v>
+      </c>
+      <c r="C2" s="42">
+        <v>1001.9875410278461</v>
+      </c>
+      <c r="D2" s="42">
+        <v>995.37722560825773</v>
+      </c>
+      <c r="E2" s="42">
+        <v>990.95804854959499</v>
+      </c>
+      <c r="F2" s="42">
+        <v>987.73744809193045</v>
+      </c>
+      <c r="G2" s="42">
+        <v>983.23517681721398</v>
+      </c>
+      <c r="H2" s="42">
+        <v>979.31965541139004</v>
+      </c>
+      <c r="I2" s="42">
+        <v>975.1004685614646</v>
+      </c>
+      <c r="J2" s="42">
+        <v>970.37196523467185</v>
+      </c>
+      <c r="K2" s="42">
+        <v>966.97216541364935</v>
+      </c>
+      <c r="L2" s="42">
+        <v>964.26431600180854</v>
+      </c>
+      <c r="M2" s="42">
+        <v>960.50474516578868</v>
+      </c>
+      <c r="N2" s="42">
+        <v>958.14821000559584</v>
+      </c>
+      <c r="O2" s="42">
+        <v>955.42892077489842</v>
+      </c>
+      <c r="P2" s="42">
+        <v>951.96533040475754</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>948.31828693268255</v>
+      </c>
+      <c r="R2" s="42">
+        <v>946.33165720787804</v>
+      </c>
+      <c r="S2" s="42">
+        <v>943.04316107296654</v>
+      </c>
+      <c r="T2" s="42">
+        <v>940.40281816152185</v>
+      </c>
+      <c r="U2" s="42">
+        <v>937.71812617418891</v>
+      </c>
+      <c r="V2" s="42">
+        <v>935.560218757396</v>
+      </c>
+      <c r="W2" s="42">
+        <v>931.69599721029147</v>
+      </c>
+      <c r="X2" s="42">
+        <v>929.06220758551854</v>
+      </c>
+      <c r="Y2" s="42">
+        <v>926.38994586598915</v>
+      </c>
+      <c r="Z2" s="42">
+        <v>923.69837948711393</v>
+      </c>
+      <c r="AA2" s="42">
+        <v>913.05237801739736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="32" customFormat="1">
+      <c r="A3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40">
+        <v>1008.0019363728217</v>
+      </c>
+      <c r="C3" s="40">
+        <v>1001.9875410278461</v>
+      </c>
+      <c r="D3" s="40">
+        <v>995.37722560825773</v>
+      </c>
+      <c r="E3" s="40">
+        <v>990.95804854959499</v>
+      </c>
+      <c r="F3" s="40">
+        <v>987.73744809193045</v>
+      </c>
+      <c r="G3" s="40">
+        <v>983.23517681721398</v>
+      </c>
+      <c r="H3" s="40">
+        <v>979.31965541139004</v>
+      </c>
+      <c r="I3" s="40">
+        <v>975.1004685614646</v>
+      </c>
+      <c r="J3" s="40">
+        <v>970.37196523467185</v>
+      </c>
+      <c r="K3" s="40">
+        <v>966.97216541364935</v>
+      </c>
+      <c r="L3" s="40">
+        <v>964.26431600180854</v>
+      </c>
+      <c r="M3" s="40">
+        <v>960.50474516578868</v>
+      </c>
+      <c r="N3" s="40">
+        <v>958.14821000559584</v>
+      </c>
+      <c r="O3" s="40">
+        <v>955.42892077489842</v>
+      </c>
+      <c r="P3" s="40">
+        <v>951.96533040475754</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>948.31828693268255</v>
+      </c>
+      <c r="R3" s="40">
+        <v>946.33165720787804</v>
+      </c>
+      <c r="S3" s="40">
+        <v>943.04316107296654</v>
+      </c>
+      <c r="T3" s="40">
+        <v>940.40281816152185</v>
+      </c>
+      <c r="U3" s="40">
+        <v>937.71812617418891</v>
+      </c>
+      <c r="V3" s="40">
+        <v>935.560218757396</v>
+      </c>
+      <c r="W3" s="40">
+        <v>931.69599721029147</v>
+      </c>
+      <c r="X3" s="40">
+        <v>929.06220758551854</v>
+      </c>
+      <c r="Y3" s="40">
+        <v>926.38994586598915</v>
+      </c>
+      <c r="Z3" s="40">
+        <v>923.69837948711393</v>
+      </c>
+      <c r="AA3" s="40">
+        <v>913.05237801739736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41">
+        <v>1008.0019363728217</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1001.9875410278461</v>
+      </c>
+      <c r="D4" s="41">
+        <v>995.37722560825773</v>
+      </c>
+      <c r="E4" s="41">
+        <v>990.95804854959499</v>
+      </c>
+      <c r="F4" s="41">
+        <v>987.73744809193045</v>
+      </c>
+      <c r="G4" s="41">
+        <v>983.23517681721398</v>
+      </c>
+      <c r="H4" s="41">
+        <v>979.31965541139004</v>
+      </c>
+      <c r="I4" s="41">
+        <v>975.1004685614646</v>
+      </c>
+      <c r="J4" s="41">
+        <v>970.37196523467185</v>
+      </c>
+      <c r="K4" s="41">
+        <v>966.97216541364935</v>
+      </c>
+      <c r="L4" s="41">
+        <v>964.26431600180854</v>
+      </c>
+      <c r="M4" s="41">
+        <v>960.50474516578868</v>
+      </c>
+      <c r="N4" s="41">
+        <v>958.14821000559584</v>
+      </c>
+      <c r="O4" s="41">
+        <v>955.42892077489842</v>
+      </c>
+      <c r="P4" s="41">
+        <v>951.96533040475754</v>
+      </c>
+      <c r="Q4" s="41">
+        <v>948.31828693268255</v>
+      </c>
+      <c r="R4" s="41">
+        <v>946.33165720787804</v>
+      </c>
+      <c r="S4" s="41">
+        <v>943.04316107296654</v>
+      </c>
+      <c r="T4" s="41">
+        <v>940.40281816152185</v>
+      </c>
+      <c r="U4" s="41">
+        <v>937.71812617418891</v>
+      </c>
+      <c r="V4" s="41">
+        <v>935.560218757396</v>
+      </c>
+      <c r="W4" s="41">
+        <v>931.69599721029147</v>
+      </c>
+      <c r="X4" s="41">
+        <v>929.06220758551854</v>
+      </c>
+      <c r="Y4" s="41">
+        <v>926.38994586598915</v>
+      </c>
+      <c r="Z4" s="41">
+        <v>923.69837948711393</v>
+      </c>
+      <c r="AA4" s="41">
+        <v>913.05237801739736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15" thickTop="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="C5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="D5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="E5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="F5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="G5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="H5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="I5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="J5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="K5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="L5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="M5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="N5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="O5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="P5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="R5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="S5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="T5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="U5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="V5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="W5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="X5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Y5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Z5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="AA5" s="49">
+        <v>12.86345776031434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="C6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="D6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="E6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="F6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="G6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="H6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="I6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="J6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="K6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="L6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="M6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="N6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="O6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="P6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="R6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="S6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="T6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="U6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="V6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="W6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="X6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Y6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Z6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="AA6" s="50">
+        <v>12.86345776031434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="C7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="D7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="E7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="F7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="G7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="H7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="I7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="J7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="K7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="L7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="M7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="N7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="O7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="P7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="R7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="S7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="T7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="U7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="V7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="W7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="X7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Y7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="Z7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+      <c r="AA7" s="51">
+        <v>12.86345776031434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15" thickTop="1">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="C8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="D8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="E8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="F8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="G8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="H8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="I8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="J8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="K8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="L8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="M8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="N8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="O8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="P8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Q8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="R8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="S8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="T8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="U8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="V8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="W8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="X8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Y8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Z8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="AA8" s="58">
+        <v>2.1611001964636545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="C9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="D9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="E9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="F9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="G9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="H9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="I9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="J9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="K9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="L9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="M9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="N9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="O9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="P9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Q9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="R9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="S9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="T9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="U9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="V9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="W9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="X9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Y9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Z9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="AA9" s="59">
+        <v>2.1611001964636545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15" thickBot="1">
+      <c r="A10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="C10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="D10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="E10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="F10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="G10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="H10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="I10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="J10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="K10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="L10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="M10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="N10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="O10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="P10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Q10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="R10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="S10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="T10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="U10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="V10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="W10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="X10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Y10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="Z10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+      <c r="AA10" s="60">
+        <v>2.1611001964636545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F52BA06-02B9-4811-9CB9-6C9226246316}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -3012,856 +4943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F530363B-652D-44FD-A55D-814EC5A0CD85}">
-  <dimension ref="A1:AA10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="B1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.5546875" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="61" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2026</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2027</v>
-      </c>
-      <c r="E1" s="4">
-        <v>2028</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2029</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2030</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2031</v>
-      </c>
-      <c r="I1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2033</v>
-      </c>
-      <c r="K1" s="4">
-        <v>2034</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2035</v>
-      </c>
-      <c r="M1" s="4">
-        <v>2036</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2037</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2038</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2039</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>2040</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2041</v>
-      </c>
-      <c r="S1" s="4">
-        <v>2042</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2043</v>
-      </c>
-      <c r="U1" s="4">
-        <v>2044</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2045</v>
-      </c>
-      <c r="W1" s="4">
-        <v>2046</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2047</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2049</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="61" customFormat="1">
-      <c r="A2" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="68">
-        <v>4246.8782788558319</v>
-      </c>
-      <c r="C2" s="68">
-        <v>4231.6790442430774</v>
-      </c>
-      <c r="D2" s="68">
-        <v>4213.8909535014091</v>
-      </c>
-      <c r="E2" s="68">
-        <v>4198.1398683591688</v>
-      </c>
-      <c r="F2" s="68">
-        <v>4181.2692859688377</v>
-      </c>
-      <c r="G2" s="68">
-        <v>4160.1571662025344</v>
-      </c>
-      <c r="H2" s="68">
-        <v>4140.1271695274218</v>
-      </c>
-      <c r="I2" s="68">
-        <v>4118.7092252928587</v>
-      </c>
-      <c r="J2" s="68">
-        <v>4096.6705634669288</v>
-      </c>
-      <c r="K2" s="68">
-        <v>4079.0442739326072</v>
-      </c>
-      <c r="L2" s="68">
-        <v>4060.2343140119419</v>
-      </c>
-      <c r="M2" s="68">
-        <v>4035.7794151765656</v>
-      </c>
-      <c r="N2" s="68">
-        <v>4017.2245214875188</v>
-      </c>
-      <c r="O2" s="68">
-        <v>3997.1432853965721</v>
-      </c>
-      <c r="P2" s="68">
-        <v>3973.9530615336344</v>
-      </c>
-      <c r="Q2" s="68">
-        <v>3950.0104959908699</v>
-      </c>
-      <c r="R2" s="68">
-        <v>3932.9842881847553</v>
-      </c>
-      <c r="S2" s="68">
-        <v>3910.5441713461428</v>
-      </c>
-      <c r="T2" s="68">
-        <v>3890.7942313281296</v>
-      </c>
-      <c r="U2" s="68">
-        <v>3870.8579640126163</v>
-      </c>
-      <c r="V2" s="68">
-        <v>3853.0887460572994</v>
-      </c>
-      <c r="W2" s="68">
-        <v>3828.2956139183625</v>
-      </c>
-      <c r="X2" s="68">
-        <v>3808.5670682924215</v>
-      </c>
-      <c r="Y2" s="68">
-        <v>3788.6770804301086</v>
-      </c>
-      <c r="Z2" s="68">
-        <v>3768.7056797599212</v>
-      </c>
-      <c r="AA2" s="68">
-        <v>3716.3551090632982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="61" customFormat="1">
-      <c r="A3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="66">
-        <v>4246.8782788558319</v>
-      </c>
-      <c r="C3" s="66">
-        <v>4231.6790442430774</v>
-      </c>
-      <c r="D3" s="66">
-        <v>4213.8909535014091</v>
-      </c>
-      <c r="E3" s="66">
-        <v>4198.1398683591688</v>
-      </c>
-      <c r="F3" s="66">
-        <v>4181.2692859688377</v>
-      </c>
-      <c r="G3" s="66">
-        <v>4160.1571662025344</v>
-      </c>
-      <c r="H3" s="66">
-        <v>4140.1271695274218</v>
-      </c>
-      <c r="I3" s="66">
-        <v>4118.7092252928587</v>
-      </c>
-      <c r="J3" s="66">
-        <v>4096.6705634669288</v>
-      </c>
-      <c r="K3" s="66">
-        <v>4079.0442739326072</v>
-      </c>
-      <c r="L3" s="66">
-        <v>4060.2343140119419</v>
-      </c>
-      <c r="M3" s="66">
-        <v>4035.7794151765656</v>
-      </c>
-      <c r="N3" s="66">
-        <v>4017.2245214875188</v>
-      </c>
-      <c r="O3" s="66">
-        <v>3997.1432853965721</v>
-      </c>
-      <c r="P3" s="66">
-        <v>3973.9530615336344</v>
-      </c>
-      <c r="Q3" s="66">
-        <v>3950.0104959908699</v>
-      </c>
-      <c r="R3" s="66">
-        <v>3932.9842881847553</v>
-      </c>
-      <c r="S3" s="66">
-        <v>3910.5441713461428</v>
-      </c>
-      <c r="T3" s="66">
-        <v>3890.7942313281296</v>
-      </c>
-      <c r="U3" s="66">
-        <v>3870.8579640126163</v>
-      </c>
-      <c r="V3" s="66">
-        <v>3853.0887460572994</v>
-      </c>
-      <c r="W3" s="66">
-        <v>3828.2956139183625</v>
-      </c>
-      <c r="X3" s="66">
-        <v>3808.5670682924215</v>
-      </c>
-      <c r="Y3" s="66">
-        <v>3788.6770804301086</v>
-      </c>
-      <c r="Z3" s="66">
-        <v>3768.7056797599212</v>
-      </c>
-      <c r="AA3" s="66">
-        <v>3716.3551090632982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="67">
-        <v>4246.8782788558319</v>
-      </c>
-      <c r="C4" s="67">
-        <v>4231.6790442430774</v>
-      </c>
-      <c r="D4" s="67">
-        <v>4213.8909535014091</v>
-      </c>
-      <c r="E4" s="67">
-        <v>4198.1398683591688</v>
-      </c>
-      <c r="F4" s="67">
-        <v>4181.2692859688377</v>
-      </c>
-      <c r="G4" s="67">
-        <v>4160.1571662025344</v>
-      </c>
-      <c r="H4" s="67">
-        <v>4140.1271695274218</v>
-      </c>
-      <c r="I4" s="67">
-        <v>4118.7092252928587</v>
-      </c>
-      <c r="J4" s="67">
-        <v>4096.6705634669288</v>
-      </c>
-      <c r="K4" s="67">
-        <v>4079.0442739326072</v>
-      </c>
-      <c r="L4" s="67">
-        <v>4060.2343140119419</v>
-      </c>
-      <c r="M4" s="67">
-        <v>4035.7794151765656</v>
-      </c>
-      <c r="N4" s="67">
-        <v>4017.2245214875188</v>
-      </c>
-      <c r="O4" s="67">
-        <v>3997.1432853965721</v>
-      </c>
-      <c r="P4" s="67">
-        <v>3973.9530615336344</v>
-      </c>
-      <c r="Q4" s="67">
-        <v>3950.0104959908699</v>
-      </c>
-      <c r="R4" s="67">
-        <v>3932.9842881847553</v>
-      </c>
-      <c r="S4" s="67">
-        <v>3910.5441713461428</v>
-      </c>
-      <c r="T4" s="67">
-        <v>3890.7942313281296</v>
-      </c>
-      <c r="U4" s="67">
-        <v>3870.8579640126163</v>
-      </c>
-      <c r="V4" s="67">
-        <v>3853.0887460572994</v>
-      </c>
-      <c r="W4" s="67">
-        <v>3828.2956139183625</v>
-      </c>
-      <c r="X4" s="67">
-        <v>3808.5670682924215</v>
-      </c>
-      <c r="Y4" s="67">
-        <v>3788.6770804301086</v>
-      </c>
-      <c r="Z4" s="67">
-        <v>3768.7056797599212</v>
-      </c>
-      <c r="AA4" s="67">
-        <v>3716.3551090632982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" thickTop="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="C5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="D5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="E5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="F5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="G5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="H5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="I5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="J5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="K5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="L5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="M5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="N5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="O5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="P5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Q5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="R5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="S5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="T5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="U5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="V5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="W5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="X5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Y5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Z5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="AA5" s="69">
-        <v>122.97642436149312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="C6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="D6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="E6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="F6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="G6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="H6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="I6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="J6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="K6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="L6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="M6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="N6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="O6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="P6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Q6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="R6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="S6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="T6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="U6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="V6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="W6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="X6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Y6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Z6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="AA6" s="69">
-        <v>122.97642436149312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="C7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="D7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="E7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="F7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="G7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="H7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="I7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="J7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="K7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="L7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="M7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="N7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="O7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="P7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Q7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="R7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="S7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="T7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="U7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="V7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="W7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="X7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Y7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="Z7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-      <c r="AA7" s="69">
-        <v>122.97642436149312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="C8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="D8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="E8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="F8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="G8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="H8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="I8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="J8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="K8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="L8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="M8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="N8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="O8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="P8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Q8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="R8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="S8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="T8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="U8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="V8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="W8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="X8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Y8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Z8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="AA8" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="C9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="D9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="E9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="F9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="G9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="H9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="I9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="J9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="K9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="L9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="M9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="N9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="O9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="P9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Q9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="R9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="S9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="T9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="U9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="V9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="W9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="X9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Y9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Z9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="AA9" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="C10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="D10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="E10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="F10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="G10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="H10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="I10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="J10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="K10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="L10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="M10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="N10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="O10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="P10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Q10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="R10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="S10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="T10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="U10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="V10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="W10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="X10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Y10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="Z10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-      <c r="AA10" s="71">
-        <v>4.7249508840864438</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77EB8C8D-A1DD-4A8E-A310-9FAB77B22E52}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -4710,7 +5792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C10573-2207-46C3-B700-08B69FF307F5}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -5559,7 +6641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1A3106-C391-4E29-8E41-94AA999AA605}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -6408,7 +7490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97998281-4CAD-4EFF-95EE-DE2F5ADDD260}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -7258,11 +8340,861 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9F0196-BE41-4D4B-9EE5-8EB0A5AE955D}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="78" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2027</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2029</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2031</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2033</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2035</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2037</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2039</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2041</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2043</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2045</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2047</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2049</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="78" customFormat="1">
+      <c r="A2" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="83">
+        <v>4099.1158508425824</v>
+      </c>
+      <c r="C2" s="83">
+        <v>4091.1558428959215</v>
+      </c>
+      <c r="D2" s="83">
+        <v>4080.7055357963304</v>
+      </c>
+      <c r="E2" s="83">
+        <v>4072.2400919656875</v>
+      </c>
+      <c r="F2" s="83">
+        <v>4062.701678683447</v>
+      </c>
+      <c r="G2" s="83">
+        <v>4049.0474027155306</v>
+      </c>
+      <c r="H2" s="83">
+        <v>4036.4457845290613</v>
+      </c>
+      <c r="I2" s="83">
+        <v>4022.4908203418204</v>
+      </c>
+      <c r="J2" s="83">
+        <v>4007.9244369461508</v>
+      </c>
+      <c r="K2" s="83">
+        <v>3997.6776351353105</v>
+      </c>
+      <c r="L2" s="83">
+        <v>3986.2788080643622</v>
+      </c>
+      <c r="M2" s="83">
+        <v>3969.3340763718875</v>
+      </c>
+      <c r="N2" s="83">
+        <v>3958.1880095418119</v>
+      </c>
+      <c r="O2" s="83">
+        <v>3945.5428290439436</v>
+      </c>
+      <c r="P2" s="83">
+        <v>3929.8245476510956</v>
+      </c>
+      <c r="Q2" s="83">
+        <v>3913.3514861714762</v>
+      </c>
+      <c r="R2" s="83">
+        <v>3903.7302757735752</v>
+      </c>
+      <c r="S2" s="83">
+        <v>3888.7384259906003</v>
+      </c>
+      <c r="T2" s="83">
+        <v>3876.4193402143574</v>
+      </c>
+      <c r="U2" s="83">
+        <v>3863.9170049352815</v>
+      </c>
+      <c r="V2" s="83">
+        <v>3853.5836394497987</v>
+      </c>
+      <c r="W2" s="83">
+        <v>3836.2231338199613</v>
+      </c>
+      <c r="X2" s="83">
+        <v>3823.9300313765698</v>
+      </c>
+      <c r="Y2" s="83">
+        <v>3811.47810449094</v>
+      </c>
+      <c r="Z2" s="83">
+        <v>3798.9466485737348</v>
+      </c>
+      <c r="AA2" s="83">
+        <v>3753.7118898041126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="78" customFormat="1">
+      <c r="A3" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="81">
+        <v>4099.1158508425824</v>
+      </c>
+      <c r="C3" s="81">
+        <v>4091.1558428959215</v>
+      </c>
+      <c r="D3" s="81">
+        <v>4080.7055357963304</v>
+      </c>
+      <c r="E3" s="81">
+        <v>4072.2400919656875</v>
+      </c>
+      <c r="F3" s="81">
+        <v>4062.701678683447</v>
+      </c>
+      <c r="G3" s="81">
+        <v>4049.0474027155306</v>
+      </c>
+      <c r="H3" s="81">
+        <v>4036.4457845290613</v>
+      </c>
+      <c r="I3" s="81">
+        <v>4022.4908203418204</v>
+      </c>
+      <c r="J3" s="81">
+        <v>4007.9244369461508</v>
+      </c>
+      <c r="K3" s="81">
+        <v>3997.6776351353105</v>
+      </c>
+      <c r="L3" s="81">
+        <v>3986.2788080643622</v>
+      </c>
+      <c r="M3" s="81">
+        <v>3969.3340763718875</v>
+      </c>
+      <c r="N3" s="81">
+        <v>3958.1880095418119</v>
+      </c>
+      <c r="O3" s="81">
+        <v>3945.5428290439436</v>
+      </c>
+      <c r="P3" s="81">
+        <v>3929.8245476510956</v>
+      </c>
+      <c r="Q3" s="81">
+        <v>3913.3514861714762</v>
+      </c>
+      <c r="R3" s="81">
+        <v>3903.7302757735752</v>
+      </c>
+      <c r="S3" s="81">
+        <v>3888.7384259906003</v>
+      </c>
+      <c r="T3" s="81">
+        <v>3876.4193402143574</v>
+      </c>
+      <c r="U3" s="81">
+        <v>3863.9170049352815</v>
+      </c>
+      <c r="V3" s="81">
+        <v>3853.5836394497987</v>
+      </c>
+      <c r="W3" s="81">
+        <v>3836.2231338199613</v>
+      </c>
+      <c r="X3" s="81">
+        <v>3823.9300313765698</v>
+      </c>
+      <c r="Y3" s="81">
+        <v>3811.47810449094</v>
+      </c>
+      <c r="Z3" s="81">
+        <v>3798.9466485737348</v>
+      </c>
+      <c r="AA3" s="81">
+        <v>3753.7118898041126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="82">
+        <v>4099.1158508425824</v>
+      </c>
+      <c r="C4" s="82">
+        <v>4091.1558428959215</v>
+      </c>
+      <c r="D4" s="82">
+        <v>4080.7055357963304</v>
+      </c>
+      <c r="E4" s="82">
+        <v>4072.2400919656875</v>
+      </c>
+      <c r="F4" s="82">
+        <v>4062.701678683447</v>
+      </c>
+      <c r="G4" s="82">
+        <v>4049.0474027155306</v>
+      </c>
+      <c r="H4" s="82">
+        <v>4036.4457845290613</v>
+      </c>
+      <c r="I4" s="82">
+        <v>4022.4908203418204</v>
+      </c>
+      <c r="J4" s="82">
+        <v>4007.9244369461508</v>
+      </c>
+      <c r="K4" s="82">
+        <v>3997.6776351353105</v>
+      </c>
+      <c r="L4" s="82">
+        <v>3986.2788080643622</v>
+      </c>
+      <c r="M4" s="82">
+        <v>3969.3340763718875</v>
+      </c>
+      <c r="N4" s="82">
+        <v>3958.1880095418119</v>
+      </c>
+      <c r="O4" s="82">
+        <v>3945.5428290439436</v>
+      </c>
+      <c r="P4" s="82">
+        <v>3929.8245476510956</v>
+      </c>
+      <c r="Q4" s="82">
+        <v>3913.3514861714762</v>
+      </c>
+      <c r="R4" s="82">
+        <v>3903.7302757735752</v>
+      </c>
+      <c r="S4" s="82">
+        <v>3888.7384259906003</v>
+      </c>
+      <c r="T4" s="82">
+        <v>3876.4193402143574</v>
+      </c>
+      <c r="U4" s="82">
+        <v>3863.9170049352815</v>
+      </c>
+      <c r="V4" s="82">
+        <v>3853.5836394497987</v>
+      </c>
+      <c r="W4" s="82">
+        <v>3836.2231338199613</v>
+      </c>
+      <c r="X4" s="82">
+        <v>3823.9300313765698</v>
+      </c>
+      <c r="Y4" s="82">
+        <v>3811.47810449094</v>
+      </c>
+      <c r="Z4" s="82">
+        <v>3798.9466485737348</v>
+      </c>
+      <c r="AA4" s="82">
+        <v>3753.7118898041126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15" thickTop="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="C5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="D5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="E5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="F5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="G5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="H5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="I5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="J5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="K5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="L5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="M5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="N5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="O5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="P5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Q5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="R5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="S5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="T5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="U5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="V5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="W5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="X5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Y5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Z5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="AA5" s="88">
+        <v>39.695481335952849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="C6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="D6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="E6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="F6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="G6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="H6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="I6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="J6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="K6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="L6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="M6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="N6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="O6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="P6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Q6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="R6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="S6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="T6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="U6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="V6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="W6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="X6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Y6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Z6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="AA6" s="87">
+        <v>39.695481335952849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="C7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="D7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="E7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="F7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="G7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="H7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="I7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="J7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="K7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="L7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="M7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="N7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="O7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="P7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Q7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="R7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="S7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="T7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="U7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="V7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="W7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="X7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Y7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="Z7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+      <c r="AA7" s="87">
+        <v>39.695481335952849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15" thickTop="1">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="C8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="D8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="E8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="F8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="G8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="H8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="I8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="J8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="K8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="L8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="M8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="N8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="O8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="P8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Q8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="R8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="S8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="T8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="U8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="V8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="W8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="X8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Y8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Z8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="AA8" s="92">
+        <v>4.4007858546168963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="C9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="D9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="E9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="F9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="G9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="H9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="I9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="J9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="K9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="L9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="M9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="N9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="O9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="P9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Q9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="R9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="S9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="T9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="U9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="V9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="W9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="X9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Y9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Z9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="AA9" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="C10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="D10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="E10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="F10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="G10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="H10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="I10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="J10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="K10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="L10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="M10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="N10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="O10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="P10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Q10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="R10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="S10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="T10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="U10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="V10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="W10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="X10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Y10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="Z10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+      <c r="AA10" s="91">
+        <v>4.4007858546168963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63542660-17BE-4A02-868C-5F6368117664}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="B1:H1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8106,7 +10038,856 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F530363B-652D-44FD-A55D-814EC5A0CD85}">
+  <dimension ref="A1:AA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="61" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2026</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2027</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2028</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2029</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2031</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2032</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2033</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2034</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2035</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2036</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2037</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2038</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2039</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2040</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2041</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2042</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2043</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2044</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2045</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2046</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2047</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2048</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2049</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="61" customFormat="1">
+      <c r="A2" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="68">
+        <v>4246.8782788558319</v>
+      </c>
+      <c r="C2" s="68">
+        <v>4231.6790442430774</v>
+      </c>
+      <c r="D2" s="68">
+        <v>4213.8909535014091</v>
+      </c>
+      <c r="E2" s="68">
+        <v>4198.1398683591688</v>
+      </c>
+      <c r="F2" s="68">
+        <v>4181.2692859688377</v>
+      </c>
+      <c r="G2" s="68">
+        <v>4160.1571662025344</v>
+      </c>
+      <c r="H2" s="68">
+        <v>4140.1271695274218</v>
+      </c>
+      <c r="I2" s="68">
+        <v>4118.7092252928587</v>
+      </c>
+      <c r="J2" s="68">
+        <v>4096.6705634669288</v>
+      </c>
+      <c r="K2" s="68">
+        <v>4079.0442739326072</v>
+      </c>
+      <c r="L2" s="68">
+        <v>4060.2343140119419</v>
+      </c>
+      <c r="M2" s="68">
+        <v>4035.7794151765656</v>
+      </c>
+      <c r="N2" s="68">
+        <v>4017.2245214875188</v>
+      </c>
+      <c r="O2" s="68">
+        <v>3997.1432853965721</v>
+      </c>
+      <c r="P2" s="68">
+        <v>3973.9530615336344</v>
+      </c>
+      <c r="Q2" s="68">
+        <v>3950.0104959908699</v>
+      </c>
+      <c r="R2" s="68">
+        <v>3932.9842881847553</v>
+      </c>
+      <c r="S2" s="68">
+        <v>3910.5441713461428</v>
+      </c>
+      <c r="T2" s="68">
+        <v>3890.7942313281296</v>
+      </c>
+      <c r="U2" s="68">
+        <v>3870.8579640126163</v>
+      </c>
+      <c r="V2" s="68">
+        <v>3853.0887460572994</v>
+      </c>
+      <c r="W2" s="68">
+        <v>3828.2956139183625</v>
+      </c>
+      <c r="X2" s="68">
+        <v>3808.5670682924215</v>
+      </c>
+      <c r="Y2" s="68">
+        <v>3788.6770804301086</v>
+      </c>
+      <c r="Z2" s="68">
+        <v>3768.7056797599212</v>
+      </c>
+      <c r="AA2" s="68">
+        <v>3716.3551090632982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="61" customFormat="1">
+      <c r="A3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66">
+        <v>4246.8782788558319</v>
+      </c>
+      <c r="C3" s="66">
+        <v>4231.6790442430774</v>
+      </c>
+      <c r="D3" s="66">
+        <v>4213.8909535014091</v>
+      </c>
+      <c r="E3" s="66">
+        <v>4198.1398683591688</v>
+      </c>
+      <c r="F3" s="66">
+        <v>4181.2692859688377</v>
+      </c>
+      <c r="G3" s="66">
+        <v>4160.1571662025344</v>
+      </c>
+      <c r="H3" s="66">
+        <v>4140.1271695274218</v>
+      </c>
+      <c r="I3" s="66">
+        <v>4118.7092252928587</v>
+      </c>
+      <c r="J3" s="66">
+        <v>4096.6705634669288</v>
+      </c>
+      <c r="K3" s="66">
+        <v>4079.0442739326072</v>
+      </c>
+      <c r="L3" s="66">
+        <v>4060.2343140119419</v>
+      </c>
+      <c r="M3" s="66">
+        <v>4035.7794151765656</v>
+      </c>
+      <c r="N3" s="66">
+        <v>4017.2245214875188</v>
+      </c>
+      <c r="O3" s="66">
+        <v>3997.1432853965721</v>
+      </c>
+      <c r="P3" s="66">
+        <v>3973.9530615336344</v>
+      </c>
+      <c r="Q3" s="66">
+        <v>3950.0104959908699</v>
+      </c>
+      <c r="R3" s="66">
+        <v>3932.9842881847553</v>
+      </c>
+      <c r="S3" s="66">
+        <v>3910.5441713461428</v>
+      </c>
+      <c r="T3" s="66">
+        <v>3890.7942313281296</v>
+      </c>
+      <c r="U3" s="66">
+        <v>3870.8579640126163</v>
+      </c>
+      <c r="V3" s="66">
+        <v>3853.0887460572994</v>
+      </c>
+      <c r="W3" s="66">
+        <v>3828.2956139183625</v>
+      </c>
+      <c r="X3" s="66">
+        <v>3808.5670682924215</v>
+      </c>
+      <c r="Y3" s="66">
+        <v>3788.6770804301086</v>
+      </c>
+      <c r="Z3" s="66">
+        <v>3768.7056797599212</v>
+      </c>
+      <c r="AA3" s="66">
+        <v>3716.3551090632982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67">
+        <v>4246.8782788558319</v>
+      </c>
+      <c r="C4" s="67">
+        <v>4231.6790442430774</v>
+      </c>
+      <c r="D4" s="67">
+        <v>4213.8909535014091</v>
+      </c>
+      <c r="E4" s="67">
+        <v>4198.1398683591688</v>
+      </c>
+      <c r="F4" s="67">
+        <v>4181.2692859688377</v>
+      </c>
+      <c r="G4" s="67">
+        <v>4160.1571662025344</v>
+      </c>
+      <c r="H4" s="67">
+        <v>4140.1271695274218</v>
+      </c>
+      <c r="I4" s="67">
+        <v>4118.7092252928587</v>
+      </c>
+      <c r="J4" s="67">
+        <v>4096.6705634669288</v>
+      </c>
+      <c r="K4" s="67">
+        <v>4079.0442739326072</v>
+      </c>
+      <c r="L4" s="67">
+        <v>4060.2343140119419</v>
+      </c>
+      <c r="M4" s="67">
+        <v>4035.7794151765656</v>
+      </c>
+      <c r="N4" s="67">
+        <v>4017.2245214875188</v>
+      </c>
+      <c r="O4" s="67">
+        <v>3997.1432853965721</v>
+      </c>
+      <c r="P4" s="67">
+        <v>3973.9530615336344</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>3950.0104959908699</v>
+      </c>
+      <c r="R4" s="67">
+        <v>3932.9842881847553</v>
+      </c>
+      <c r="S4" s="67">
+        <v>3910.5441713461428</v>
+      </c>
+      <c r="T4" s="67">
+        <v>3890.7942313281296</v>
+      </c>
+      <c r="U4" s="67">
+        <v>3870.8579640126163</v>
+      </c>
+      <c r="V4" s="67">
+        <v>3853.0887460572994</v>
+      </c>
+      <c r="W4" s="67">
+        <v>3828.2956139183625</v>
+      </c>
+      <c r="X4" s="67">
+        <v>3808.5670682924215</v>
+      </c>
+      <c r="Y4" s="67">
+        <v>3788.6770804301086</v>
+      </c>
+      <c r="Z4" s="67">
+        <v>3768.7056797599212</v>
+      </c>
+      <c r="AA4" s="67">
+        <v>3716.3551090632982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15" thickTop="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="C5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="D5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="E5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="F5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="G5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="H5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="I5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="J5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="K5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="L5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="M5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="N5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="O5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="P5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Q5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="R5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="S5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="T5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="U5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="V5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="W5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="X5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Y5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="AA5" s="69">
+        <v>122.97642436149312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="C6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="D6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="E6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="F6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="G6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="H6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="I6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="J6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="K6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="L6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="M6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="N6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="O6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="P6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Q6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="R6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="S6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="T6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="U6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="V6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="W6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="X6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Y6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Z6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="AA6" s="69">
+        <v>122.97642436149312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="C7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="D7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="E7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="F7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="G7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="H7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="I7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="J7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="K7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="L7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="M7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="N7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="O7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="P7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Q7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="R7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="S7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="T7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="U7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="V7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="W7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="X7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Y7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="Z7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+      <c r="AA7" s="69">
+        <v>122.97642436149312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="C8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="D8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="E8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="F8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="G8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="H8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="I8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="J8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="K8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="L8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="M8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="N8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="O8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="P8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Q8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="R8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="S8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="T8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="U8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="V8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="W8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="X8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Y8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Z8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="AA8" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="C9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="D9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="E9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="F9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="G9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="H9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="I9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="J9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="K9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="L9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="M9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="N9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="O9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="P9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Q9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="R9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="S9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="T9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="U9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="V9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="W9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="X9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Y9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Z9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="AA9" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="C10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="D10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="E10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="F10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="G10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="H10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="I10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="J10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="K10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="L10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="M10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="N10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="O10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="P10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="R10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="S10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="T10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="U10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="V10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="W10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="X10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Y10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+      <c r="AA10" s="71">
+        <v>4.7249508840864438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A1F72-B3AA-428F-9D85-FE122A336F49}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -8955,7 +11736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C5FC23-1DF6-4B73-B4BF-3C97A910A72B}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -9804,7 +12585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36F63DE-F9DE-4539-B382-FDA904CBC441}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -10652,7 +13433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487DD5B5-477D-456D-83C1-47C2DB752A61}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -11501,7 +14282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DDA6D8-19CC-4BDB-98D3-09166DCFD6FF}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
@@ -12348,1702 +15129,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA80092E-8763-4734-8D04-462D0614B46E}">
-  <dimension ref="A1:AA10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="B1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="32" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2026</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2027</v>
-      </c>
-      <c r="E1" s="4">
-        <v>2028</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2029</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2030</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2031</v>
-      </c>
-      <c r="I1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2033</v>
-      </c>
-      <c r="K1" s="4">
-        <v>2034</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2035</v>
-      </c>
-      <c r="M1" s="4">
-        <v>2036</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2037</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2038</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2039</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>2040</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2041</v>
-      </c>
-      <c r="S1" s="4">
-        <v>2042</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2043</v>
-      </c>
-      <c r="U1" s="4">
-        <v>2044</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2045</v>
-      </c>
-      <c r="W1" s="4">
-        <v>2046</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2047</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2049</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="32" customFormat="1">
-      <c r="A2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="39">
-        <v>924.7229308080681</v>
-      </c>
-      <c r="C2" s="39">
-        <v>917.89861802124256</v>
-      </c>
-      <c r="D2" s="39">
-        <v>910.53274808400624</v>
-      </c>
-      <c r="E2" s="39">
-        <v>905.72575709406624</v>
-      </c>
-      <c r="F2" s="39">
-        <v>902.48928526207146</v>
-      </c>
-      <c r="G2" s="39">
-        <v>897.99041033365052</v>
-      </c>
-      <c r="H2" s="39">
-        <v>894.13511367335582</v>
-      </c>
-      <c r="I2" s="39">
-        <v>890.01088794751308</v>
-      </c>
-      <c r="J2" s="39">
-        <v>885.30372378089135</v>
-      </c>
-      <c r="K2" s="39">
-        <v>881.90121962169826</v>
-      </c>
-      <c r="L2" s="39">
-        <v>879.4478402080905</v>
-      </c>
-      <c r="M2" s="39">
-        <v>876.12999615251374</v>
-      </c>
-      <c r="N2" s="39">
-        <v>874.0919438779207</v>
-      </c>
-      <c r="O2" s="39">
-        <v>871.72308583678955</v>
-      </c>
-      <c r="P2" s="39">
-        <v>868.67498800661099</v>
-      </c>
-      <c r="Q2" s="39">
-        <v>865.45942525090788</v>
-      </c>
-      <c r="R2" s="39">
-        <v>863.75910859085036</v>
-      </c>
-      <c r="S2" s="39">
-        <v>860.87054510230814</v>
-      </c>
-      <c r="T2" s="39">
-        <v>858.57369874982021</v>
-      </c>
-      <c r="U2" s="39">
-        <v>856.23634902929416</v>
-      </c>
-      <c r="V2" s="39">
-        <v>854.38008117045501</v>
-      </c>
-      <c r="W2" s="39">
-        <v>850.96552111645678</v>
-      </c>
-      <c r="X2" s="39">
-        <v>848.67471055298427</v>
-      </c>
-      <c r="Y2" s="39">
-        <v>846.34886421467922</v>
-      </c>
-      <c r="Z2" s="39">
-        <v>844.0052967135415</v>
-      </c>
-      <c r="AA2" s="39">
-        <v>834.39253482591789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="32" customFormat="1">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37">
-        <v>924.7229308080681</v>
-      </c>
-      <c r="C3" s="37">
-        <v>917.89861802124256</v>
-      </c>
-      <c r="D3" s="37">
-        <v>910.53274808400624</v>
-      </c>
-      <c r="E3" s="37">
-        <v>905.72575709406624</v>
-      </c>
-      <c r="F3" s="37">
-        <v>902.48928526207146</v>
-      </c>
-      <c r="G3" s="37">
-        <v>897.99041033365052</v>
-      </c>
-      <c r="H3" s="37">
-        <v>894.13511367335582</v>
-      </c>
-      <c r="I3" s="37">
-        <v>890.01088794751308</v>
-      </c>
-      <c r="J3" s="37">
-        <v>885.30372378089135</v>
-      </c>
-      <c r="K3" s="37">
-        <v>881.90121962169826</v>
-      </c>
-      <c r="L3" s="37">
-        <v>879.4478402080905</v>
-      </c>
-      <c r="M3" s="37">
-        <v>876.12999615251374</v>
-      </c>
-      <c r="N3" s="37">
-        <v>874.0919438779207</v>
-      </c>
-      <c r="O3" s="37">
-        <v>871.72308583678955</v>
-      </c>
-      <c r="P3" s="37">
-        <v>868.67498800661099</v>
-      </c>
-      <c r="Q3" s="37">
-        <v>865.45942525090788</v>
-      </c>
-      <c r="R3" s="37">
-        <v>863.75910859085036</v>
-      </c>
-      <c r="S3" s="37">
-        <v>860.87054510230814</v>
-      </c>
-      <c r="T3" s="37">
-        <v>858.57369874982021</v>
-      </c>
-      <c r="U3" s="37">
-        <v>856.23634902929416</v>
-      </c>
-      <c r="V3" s="37">
-        <v>854.38008117045501</v>
-      </c>
-      <c r="W3" s="37">
-        <v>850.96552111645678</v>
-      </c>
-      <c r="X3" s="37">
-        <v>848.67471055298427</v>
-      </c>
-      <c r="Y3" s="37">
-        <v>846.34886421467922</v>
-      </c>
-      <c r="Z3" s="37">
-        <v>844.0052967135415</v>
-      </c>
-      <c r="AA3" s="37">
-        <v>834.39253482591789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="38">
-        <v>924.7229308080681</v>
-      </c>
-      <c r="C4" s="38">
-        <v>917.89861802124256</v>
-      </c>
-      <c r="D4" s="38">
-        <v>910.53274808400624</v>
-      </c>
-      <c r="E4" s="38">
-        <v>905.72575709406624</v>
-      </c>
-      <c r="F4" s="38">
-        <v>902.48928526207146</v>
-      </c>
-      <c r="G4" s="38">
-        <v>897.99041033365052</v>
-      </c>
-      <c r="H4" s="38">
-        <v>894.13511367335582</v>
-      </c>
-      <c r="I4" s="38">
-        <v>890.01088794751308</v>
-      </c>
-      <c r="J4" s="38">
-        <v>885.30372378089135</v>
-      </c>
-      <c r="K4" s="38">
-        <v>881.90121962169826</v>
-      </c>
-      <c r="L4" s="38">
-        <v>879.4478402080905</v>
-      </c>
-      <c r="M4" s="38">
-        <v>876.12999615251374</v>
-      </c>
-      <c r="N4" s="38">
-        <v>874.0919438779207</v>
-      </c>
-      <c r="O4" s="38">
-        <v>871.72308583678955</v>
-      </c>
-      <c r="P4" s="38">
-        <v>868.67498800661099</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>865.45942525090788</v>
-      </c>
-      <c r="R4" s="38">
-        <v>863.75910859085036</v>
-      </c>
-      <c r="S4" s="38">
-        <v>860.87054510230814</v>
-      </c>
-      <c r="T4" s="38">
-        <v>858.57369874982021</v>
-      </c>
-      <c r="U4" s="38">
-        <v>856.23634902929416</v>
-      </c>
-      <c r="V4" s="38">
-        <v>854.38008117045501</v>
-      </c>
-      <c r="W4" s="38">
-        <v>850.96552111645678</v>
-      </c>
-      <c r="X4" s="38">
-        <v>848.67471055298427</v>
-      </c>
-      <c r="Y4" s="38">
-        <v>846.34886421467922</v>
-      </c>
-      <c r="Z4" s="38">
-        <v>844.0052967135415</v>
-      </c>
-      <c r="AA4" s="38">
-        <v>834.39253482591789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" thickTop="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="C5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="D5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="E5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="F5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="G5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="H5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="I5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="J5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="K5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="L5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="M5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="N5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="O5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="P5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Q5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="R5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="S5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="T5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="U5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="V5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="W5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="X5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Y5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Z5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="AA5" s="46">
-        <v>11.394891944990176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="C6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="D6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="E6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="F6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="G6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="H6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="I6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="J6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="K6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="L6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="M6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="N6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="O6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="P6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Q6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="R6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="S6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="T6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="U6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="V6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="W6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="X6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Y6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Z6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="AA6" s="47">
-        <v>11.394891944990176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="C7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="D7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="E7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="F7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="G7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="H7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="I7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="J7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="K7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="L7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="M7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="N7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="O7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="P7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Q7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="R7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="S7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="T7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="U7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="V7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="W7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="X7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Y7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="Z7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-      <c r="AA7" s="48">
-        <v>11.394891944990176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" thickTop="1">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="C8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="D8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="E8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="F8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="G8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="H8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="I8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="J8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="K8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="L8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="M8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="N8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="O8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="P8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Q8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="R8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="S8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="T8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="U8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="V8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="W8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="X8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Y8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Z8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="AA8" s="55">
-        <v>4.4990176817288798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="C9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="D9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="E9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="F9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="G9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="H9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="I9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="J9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="K9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="L9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="M9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="N9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="O9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="P9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Q9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="R9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="S9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="T9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="U9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="V9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="W9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="X9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Y9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Z9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="AA9" s="56">
-        <v>4.4990176817288798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1">
-      <c r="A10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="C10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="D10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="E10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="F10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="G10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="H10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="I10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="J10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="K10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="L10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="M10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="N10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="O10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="P10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Q10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="R10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="S10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="T10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="U10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="V10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="W10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="X10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Y10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="Z10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-      <c r="AA10" s="57">
-        <v>4.4990176817288798</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548C24F3-5A5A-43E1-B63C-A455F8B90577}">
-  <dimension ref="A1:AA10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="B1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="22.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" s="32" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2025</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2026</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2027</v>
-      </c>
-      <c r="E1" s="4">
-        <v>2028</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2029</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2030</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2031</v>
-      </c>
-      <c r="I1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2033</v>
-      </c>
-      <c r="K1" s="4">
-        <v>2034</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2035</v>
-      </c>
-      <c r="M1" s="4">
-        <v>2036</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2037</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2038</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2039</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>2040</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2041</v>
-      </c>
-      <c r="S1" s="4">
-        <v>2042</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2043</v>
-      </c>
-      <c r="U1" s="4">
-        <v>2044</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2045</v>
-      </c>
-      <c r="W1" s="4">
-        <v>2046</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2047</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>2048</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2049</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="32" customFormat="1" ht="15" thickTop="1">
-      <c r="A2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="42">
-        <v>1008.0019363728217</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1001.9875410278461</v>
-      </c>
-      <c r="D2" s="42">
-        <v>995.37722560825773</v>
-      </c>
-      <c r="E2" s="42">
-        <v>990.95804854959499</v>
-      </c>
-      <c r="F2" s="42">
-        <v>987.73744809193045</v>
-      </c>
-      <c r="G2" s="42">
-        <v>983.23517681721398</v>
-      </c>
-      <c r="H2" s="42">
-        <v>979.31965541139004</v>
-      </c>
-      <c r="I2" s="42">
-        <v>975.1004685614646</v>
-      </c>
-      <c r="J2" s="42">
-        <v>970.37196523467185</v>
-      </c>
-      <c r="K2" s="42">
-        <v>966.97216541364935</v>
-      </c>
-      <c r="L2" s="42">
-        <v>964.26431600180854</v>
-      </c>
-      <c r="M2" s="42">
-        <v>960.50474516578868</v>
-      </c>
-      <c r="N2" s="42">
-        <v>958.14821000559584</v>
-      </c>
-      <c r="O2" s="42">
-        <v>955.42892077489842</v>
-      </c>
-      <c r="P2" s="42">
-        <v>951.96533040475754</v>
-      </c>
-      <c r="Q2" s="42">
-        <v>948.31828693268255</v>
-      </c>
-      <c r="R2" s="42">
-        <v>946.33165720787804</v>
-      </c>
-      <c r="S2" s="42">
-        <v>943.04316107296654</v>
-      </c>
-      <c r="T2" s="42">
-        <v>940.40281816152185</v>
-      </c>
-      <c r="U2" s="42">
-        <v>937.71812617418891</v>
-      </c>
-      <c r="V2" s="42">
-        <v>935.560218757396</v>
-      </c>
-      <c r="W2" s="42">
-        <v>931.69599721029147</v>
-      </c>
-      <c r="X2" s="42">
-        <v>929.06220758551854</v>
-      </c>
-      <c r="Y2" s="42">
-        <v>926.38994586598915</v>
-      </c>
-      <c r="Z2" s="42">
-        <v>923.69837948711393</v>
-      </c>
-      <c r="AA2" s="42">
-        <v>913.05237801739736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="32" customFormat="1">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40">
-        <v>1008.0019363728217</v>
-      </c>
-      <c r="C3" s="40">
-        <v>1001.9875410278461</v>
-      </c>
-      <c r="D3" s="40">
-        <v>995.37722560825773</v>
-      </c>
-      <c r="E3" s="40">
-        <v>990.95804854959499</v>
-      </c>
-      <c r="F3" s="40">
-        <v>987.73744809193045</v>
-      </c>
-      <c r="G3" s="40">
-        <v>983.23517681721398</v>
-      </c>
-      <c r="H3" s="40">
-        <v>979.31965541139004</v>
-      </c>
-      <c r="I3" s="40">
-        <v>975.1004685614646</v>
-      </c>
-      <c r="J3" s="40">
-        <v>970.37196523467185</v>
-      </c>
-      <c r="K3" s="40">
-        <v>966.97216541364935</v>
-      </c>
-      <c r="L3" s="40">
-        <v>964.26431600180854</v>
-      </c>
-      <c r="M3" s="40">
-        <v>960.50474516578868</v>
-      </c>
-      <c r="N3" s="40">
-        <v>958.14821000559584</v>
-      </c>
-      <c r="O3" s="40">
-        <v>955.42892077489842</v>
-      </c>
-      <c r="P3" s="40">
-        <v>951.96533040475754</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>948.31828693268255</v>
-      </c>
-      <c r="R3" s="40">
-        <v>946.33165720787804</v>
-      </c>
-      <c r="S3" s="40">
-        <v>943.04316107296654</v>
-      </c>
-      <c r="T3" s="40">
-        <v>940.40281816152185</v>
-      </c>
-      <c r="U3" s="40">
-        <v>937.71812617418891</v>
-      </c>
-      <c r="V3" s="40">
-        <v>935.560218757396</v>
-      </c>
-      <c r="W3" s="40">
-        <v>931.69599721029147</v>
-      </c>
-      <c r="X3" s="40">
-        <v>929.06220758551854</v>
-      </c>
-      <c r="Y3" s="40">
-        <v>926.38994586598915</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>923.69837948711393</v>
-      </c>
-      <c r="AA3" s="40">
-        <v>913.05237801739736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="41">
-        <v>1008.0019363728217</v>
-      </c>
-      <c r="C4" s="41">
-        <v>1001.9875410278461</v>
-      </c>
-      <c r="D4" s="41">
-        <v>995.37722560825773</v>
-      </c>
-      <c r="E4" s="41">
-        <v>990.95804854959499</v>
-      </c>
-      <c r="F4" s="41">
-        <v>987.73744809193045</v>
-      </c>
-      <c r="G4" s="41">
-        <v>983.23517681721398</v>
-      </c>
-      <c r="H4" s="41">
-        <v>979.31965541139004</v>
-      </c>
-      <c r="I4" s="41">
-        <v>975.1004685614646</v>
-      </c>
-      <c r="J4" s="41">
-        <v>970.37196523467185</v>
-      </c>
-      <c r="K4" s="41">
-        <v>966.97216541364935</v>
-      </c>
-      <c r="L4" s="41">
-        <v>964.26431600180854</v>
-      </c>
-      <c r="M4" s="41">
-        <v>960.50474516578868</v>
-      </c>
-      <c r="N4" s="41">
-        <v>958.14821000559584</v>
-      </c>
-      <c r="O4" s="41">
-        <v>955.42892077489842</v>
-      </c>
-      <c r="P4" s="41">
-        <v>951.96533040475754</v>
-      </c>
-      <c r="Q4" s="41">
-        <v>948.31828693268255</v>
-      </c>
-      <c r="R4" s="41">
-        <v>946.33165720787804</v>
-      </c>
-      <c r="S4" s="41">
-        <v>943.04316107296654</v>
-      </c>
-      <c r="T4" s="41">
-        <v>940.40281816152185</v>
-      </c>
-      <c r="U4" s="41">
-        <v>937.71812617418891</v>
-      </c>
-      <c r="V4" s="41">
-        <v>935.560218757396</v>
-      </c>
-      <c r="W4" s="41">
-        <v>931.69599721029147</v>
-      </c>
-      <c r="X4" s="41">
-        <v>929.06220758551854</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>926.38994586598915</v>
-      </c>
-      <c r="Z4" s="41">
-        <v>923.69837948711393</v>
-      </c>
-      <c r="AA4" s="41">
-        <v>913.05237801739736</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15" thickTop="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="C5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="D5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="E5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="F5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="G5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="H5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="I5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="J5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="K5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="L5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="M5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="N5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="O5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="P5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Q5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="R5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="S5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="T5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="U5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="V5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="W5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="X5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Y5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Z5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="AA5" s="49">
-        <v>12.86345776031434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="C6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="D6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="E6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="F6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="G6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="H6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="I6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="J6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="K6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="L6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="M6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="N6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="O6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="P6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Q6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="R6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="S6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="T6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="U6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="V6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="W6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="X6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Y6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Z6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="AA6" s="50">
-        <v>12.86345776031434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="C7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="D7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="E7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="F7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="G7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="H7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="I7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="J7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="K7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="L7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="M7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="N7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="O7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="P7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Q7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="R7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="S7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="T7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="U7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="V7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="W7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="X7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Y7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="Z7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-      <c r="AA7" s="51">
-        <v>12.86345776031434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15" thickTop="1">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="C8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="D8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="E8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="F8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="G8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="H8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="I8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="J8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="K8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="L8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="M8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="N8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="O8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="P8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Q8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="R8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="S8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="T8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="U8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="V8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="W8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="X8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Y8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Z8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="AA8" s="58">
-        <v>2.1611001964636545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="C9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="D9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="E9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="F9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="G9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="H9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="I9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="J9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="K9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="L9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="M9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="N9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="O9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="P9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Q9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="R9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="S9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="T9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="U9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="V9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="W9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="X9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Y9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Z9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="AA9" s="59">
-        <v>2.1611001964636545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15" thickBot="1">
-      <c r="A10" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="C10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="D10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="E10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="F10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="G10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="H10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="I10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="J10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="K10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="L10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="M10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="N10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="O10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="P10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Q10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="R10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="S10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="T10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="U10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="V10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="W10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="X10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Y10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="Z10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-      <c r="AA10" s="60">
-        <v>2.1611001964636545</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>